--- a/PastTests/Reviewed-10.28.2016-EndOfDay-Updated/QATestingTable(Latest-10.31.2016).xlsx
+++ b/PastTests/Reviewed-10.28.2016-EndOfDay-Updated/QATestingTable(Latest-10.31.2016).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\h\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marcin.welninski\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15816" windowHeight="4716" tabRatio="834" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19368" windowHeight="9660" tabRatio="834"/>
   </bookViews>
   <sheets>
     <sheet name="Site Map QAHealth Rating" sheetId="9" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="Marketplace" sheetId="5" r:id="rId9"/>
     <sheet name="Dashboard" sheetId="11" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="171027" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1931,7 +1928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="242">
+  <cellXfs count="241">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2061,7 +2058,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2187,6 +2183,18 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2226,6 +2234,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2235,9 +2246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2250,15 +2258,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2268,12 +2282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -2448,60 +2456,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2511,6 +2522,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2528,9 +2542,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2553,521 +2564,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="199">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="108">
     <dxf>
       <font>
         <b/>
@@ -3578,6 +3079,135 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -3991,391 +3621,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4387,74 +3632,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Site Map QAHealth Rating"/>
-      <sheetName val="Home"/>
-      <sheetName val="Explore"/>
-      <sheetName val="DMDII Portal"/>
-      <sheetName val="UserDrop-down"/>
-      <sheetName val="Footer"/>
-      <sheetName val="Assemble"/>
-      <sheetName val="Learn"/>
-      <sheetName val="Marketplace"/>
-      <sheetName val="Dashboard"/>
-      <sheetName val="Conglomoration"/>
-      <sheetName val="Tests to be saved for later"/>
-      <sheetName val="Sheet13"/>
-      <sheetName val="Sheet14"/>
-      <sheetName val="Sheet15"/>
-      <sheetName val="Sheet16"/>
-      <sheetName val="Sheet17"/>
-      <sheetName val="Sheet18"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8">
-        <row r="7">
-          <cell r="I7">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="I14">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="I19">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="I22">
-            <v>2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4754,10 +3931,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G25"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4811,128 +3991,128 @@
       </c>
     </row>
     <row r="2" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="116" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="69">
+      <c r="C2" s="67"/>
+      <c r="D2" s="68">
         <f>Dashboard!D4</f>
         <v>2</v>
       </c>
-      <c r="E2" s="109">
+      <c r="E2" s="108">
         <f>Dashboard!I4</f>
         <v>2</v>
       </c>
-      <c r="F2" s="237">
+      <c r="F2" s="112">
         <f>D2/E2</f>
         <v>1</v>
       </c>
-      <c r="G2" s="113">
+      <c r="G2" s="116">
         <f>SUM(E2:E6)</f>
         <v>9</v>
       </c>
-      <c r="H2" s="118">
+      <c r="H2" s="121">
         <f>Dashboard!D19</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="I2" s="118">
+      <c r="I2" s="121">
         <f>Dashboard!E18</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="114"/>
-      <c r="B3" s="67" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="66" t="s">
         <v>415</v>
       </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69">
+      <c r="C3" s="67"/>
+      <c r="D3" s="68">
         <f>Dashboard!D7</f>
         <v>1</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="108">
         <f>Dashboard!I7</f>
         <v>2</v>
       </c>
-      <c r="F3" s="237">
+      <c r="F3" s="112">
         <f t="shared" ref="F3:F6" si="0">D3/E3</f>
         <v>0.5</v>
       </c>
-      <c r="G3" s="116"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="122"/>
+      <c r="I3" s="122"/>
     </row>
     <row r="4" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="114"/>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69">
+      <c r="C4" s="67"/>
+      <c r="D4" s="68">
         <f>Dashboard!D10</f>
         <v>2</v>
       </c>
-      <c r="E4" s="109">
+      <c r="E4" s="108">
         <f>Dashboard!I10</f>
         <v>2</v>
       </c>
-      <c r="F4" s="237">
+      <c r="F4" s="112">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G4" s="116"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="122"/>
+      <c r="I4" s="122"/>
     </row>
     <row r="5" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="114"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="117"/>
+      <c r="B5" s="66" t="s">
         <v>417</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69">
+      <c r="C5" s="67"/>
+      <c r="D5" s="68">
         <f>Dashboard!D13</f>
         <v>1</v>
       </c>
-      <c r="E5" s="109">
+      <c r="E5" s="108">
         <f>Dashboard!I13</f>
         <v>1</v>
       </c>
-      <c r="F5" s="237">
+      <c r="F5" s="112">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="116"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="122"/>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="115"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="118"/>
+      <c r="B6" s="66" t="s">
         <v>418</v>
       </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="69">
+      <c r="C6" s="67"/>
+      <c r="D6" s="68">
         <f>Dashboard!D17</f>
         <v>2</v>
       </c>
-      <c r="E6" s="109">
+      <c r="E6" s="108">
         <f>Dashboard!I17</f>
         <v>2</v>
       </c>
-      <c r="F6" s="237">
+      <c r="F6" s="112">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G6" s="117"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
+      <c r="G6" s="120"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="123"/>
     </row>
     <row r="7" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="123" t="s">
+      <c r="A7" s="126" t="s">
         <v>326</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4943,29 +4123,29 @@
         <f>Home!D5</f>
         <v>3</v>
       </c>
-      <c r="E7" s="99">
+      <c r="E7" s="98">
         <f>Home!I5</f>
         <v>3</v>
       </c>
-      <c r="F7" s="97">
+      <c r="F7" s="96">
         <f t="shared" ref="F7:F29" si="1">D7/E7</f>
         <v>1</v>
       </c>
-      <c r="G7" s="124">
+      <c r="G7" s="127">
         <f>SUM(D7:D8)</f>
         <v>5</v>
       </c>
-      <c r="H7" s="121">
+      <c r="H7" s="124">
         <f>Home!D10</f>
         <v>1</v>
       </c>
-      <c r="I7" s="121">
+      <c r="I7" s="124">
         <f>Home!E9</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="115"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="7" t="s">
         <v>184</v>
       </c>
@@ -4974,20 +4154,20 @@
         <f>Home!D8</f>
         <v>2</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="98">
         <f>Home!I8</f>
         <v>2</v>
       </c>
-      <c r="F8" s="97">
+      <c r="F8" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G8" s="125"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="122"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="125"/>
+      <c r="I8" s="125"/>
     </row>
     <row r="9" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="126" t="s">
+      <c r="A9" s="130" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -4998,30 +4178,30 @@
         <f>Explore!D8</f>
         <v>0</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="101">
         <f>Explore!I8</f>
         <v>6</v>
       </c>
-      <c r="F9" s="96">
+      <c r="F9" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" s="131">
+      <c r="G9" s="134">
         <f>SUM(E9:E16)</f>
-        <v>82</v>
-      </c>
-      <c r="H9" s="121">
+        <v>84</v>
+      </c>
+      <c r="H9" s="124">
         <f>Explore!D97</f>
-        <v>0.48780487804878048</v>
-      </c>
-      <c r="I9" s="121">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="I9" s="124">
         <f>Explore!E96</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="126"/>
-      <c r="B10" s="127" t="s">
+      <c r="A10" s="130"/>
+      <c r="B10" s="131" t="s">
         <v>187</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -5031,21 +4211,21 @@
         <f>Explore!D18</f>
         <v>4</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="101">
         <f>Explore!I18</f>
         <v>9</v>
       </c>
-      <c r="F10" s="96">
+      <c r="F10" s="95">
         <f t="shared" si="1"/>
         <v>0.44444444444444442</v>
       </c>
-      <c r="G10" s="131"/>
+      <c r="G10" s="134"/>
       <c r="H10" s="129"/>
       <c r="I10" s="129"/>
     </row>
     <row r="11" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="126"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="130"/>
+      <c r="B11" s="132"/>
       <c r="C11" s="3" t="s">
         <v>318</v>
       </c>
@@ -5053,21 +4233,21 @@
         <f>Explore!D47</f>
         <v>17</v>
       </c>
-      <c r="E11" s="102">
+      <c r="E11" s="101">
         <f>Explore!I47</f>
         <v>28</v>
       </c>
-      <c r="F11" s="96">
+      <c r="F11" s="95">
         <f t="shared" si="1"/>
         <v>0.6071428571428571</v>
       </c>
-      <c r="G11" s="131"/>
+      <c r="G11" s="134"/>
       <c r="H11" s="129"/>
       <c r="I11" s="129"/>
     </row>
     <row r="12" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="126"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="132"/>
       <c r="C12" s="3" t="s">
         <v>319</v>
       </c>
@@ -5075,20 +4255,20 @@
         <f>Explore!D76</f>
         <v>15</v>
       </c>
-      <c r="E12" s="102">
+      <c r="E12" s="101">
         <f>Explore!I76</f>
         <v>28</v>
       </c>
-      <c r="F12" s="96">
+      <c r="F12" s="95">
         <f t="shared" si="1"/>
         <v>0.5357142857142857</v>
       </c>
-      <c r="G12" s="131"/>
+      <c r="G12" s="134"/>
       <c r="H12" s="129"/>
       <c r="I12" s="129"/>
     </row>
     <row r="13" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="126"/>
+      <c r="A13" s="130"/>
       <c r="B13" s="3" t="s">
         <v>188</v>
       </c>
@@ -5097,21 +4277,21 @@
         <f>Explore!D80</f>
         <v>1</v>
       </c>
-      <c r="E13" s="102">
+      <c r="E13" s="101">
         <f>Explore!I80</f>
         <v>1</v>
       </c>
-      <c r="F13" s="96">
+      <c r="F13" s="95">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G13" s="131"/>
+      <c r="G13" s="134"/>
       <c r="H13" s="129"/>
       <c r="I13" s="129"/>
-      <c r="P13" s="59"/>
+      <c r="P13" s="56"/>
     </row>
     <row r="14" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="126"/>
+      <c r="A14" s="130"/>
       <c r="B14" s="3" t="s">
         <v>189</v>
       </c>
@@ -5120,20 +4300,20 @@
         <f>Explore!D82</f>
         <v>1</v>
       </c>
-      <c r="E14" s="102">
+      <c r="E14" s="101">
         <f>Explore!I82</f>
         <v>1</v>
       </c>
-      <c r="F14" s="96">
+      <c r="F14" s="95">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G14" s="131"/>
+      <c r="G14" s="134"/>
       <c r="H14" s="129"/>
       <c r="I14" s="129"/>
     </row>
     <row r="15" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="126"/>
+      <c r="A15" s="130"/>
       <c r="B15" s="3" t="s">
         <v>190</v>
       </c>
@@ -5142,20 +4322,20 @@
         <f>Explore!D91</f>
         <v>0</v>
       </c>
-      <c r="E15" s="102">
+      <c r="E15" s="101">
         <f>Explore!I91</f>
         <v>8</v>
       </c>
-      <c r="F15" s="96">
+      <c r="F15" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="131"/>
+      <c r="G15" s="134"/>
       <c r="H15" s="129"/>
       <c r="I15" s="129"/>
     </row>
     <row r="16" spans="1:16" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="126"/>
+      <c r="A16" s="130"/>
       <c r="B16" s="3" t="s">
         <v>191</v>
       </c>
@@ -5164,20 +4344,20 @@
         <f>Explore!D95</f>
         <v>2</v>
       </c>
-      <c r="E16" s="102">
+      <c r="E16" s="101">
         <f>Explore!I95</f>
-        <v>1</v>
-      </c>
-      <c r="F16" s="96">
+        <v>3</v>
+      </c>
+      <c r="F16" s="95">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="G16" s="131"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G16" s="134"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="125"/>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="80" t="s">
+      <c r="A17" s="79" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -5188,29 +4368,29 @@
         <f>Learn!D8</f>
         <v>0</v>
       </c>
-      <c r="E17" s="99">
+      <c r="E17" s="98">
         <f>Learn!I8</f>
         <v>6</v>
       </c>
-      <c r="F17" s="97">
+      <c r="F17" s="96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="94">
         <f>E17</f>
         <v>6</v>
       </c>
-      <c r="H17" s="79">
+      <c r="H17" s="78">
         <f>Learn!D10</f>
         <v>0</v>
       </c>
-      <c r="I17" s="79">
+      <c r="I17" s="78">
         <f>Learn!E8</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="138" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -5221,29 +4401,29 @@
         <f>Assemble!D5</f>
         <v>1</v>
       </c>
-      <c r="E18" s="102">
+      <c r="E18" s="101">
         <f>Assemble!I5</f>
         <v>3</v>
       </c>
-      <c r="F18" s="96">
+      <c r="F18" s="95">
         <f>D18/E18</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G18" s="134">
+      <c r="G18" s="140">
         <f>SUM(E18:E25)</f>
         <v>59</v>
       </c>
-      <c r="H18" s="121">
+      <c r="H18" s="124">
         <f>Assemble!D70</f>
         <v>0.49152542372881358</v>
       </c>
-      <c r="I18" s="121">
+      <c r="I18" s="124">
         <f>Assemble!E69</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="141"/>
+      <c r="A19" s="139"/>
       <c r="B19" s="3" t="s">
         <v>197</v>
       </c>
@@ -5252,21 +4432,21 @@
         <f>Assemble!D14</f>
         <v>0</v>
       </c>
-      <c r="E19" s="102">
+      <c r="E19" s="101">
         <f>Assemble!I14</f>
         <v>8</v>
       </c>
-      <c r="F19" s="96">
+      <c r="F19" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G19" s="135"/>
+      <c r="G19" s="141"/>
       <c r="H19" s="129"/>
       <c r="I19" s="129"/>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="141"/>
-      <c r="B20" s="127" t="s">
+      <c r="A20" s="139"/>
+      <c r="B20" s="131" t="s">
         <v>139</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -5276,21 +4456,21 @@
         <f>Assemble!D34</f>
         <v>11</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="101">
         <f>Assemble!I34</f>
         <v>19</v>
       </c>
-      <c r="F20" s="96">
+      <c r="F20" s="95">
         <f t="shared" si="1"/>
         <v>0.57894736842105265</v>
       </c>
-      <c r="G20" s="135"/>
+      <c r="G20" s="141"/>
       <c r="H20" s="129"/>
       <c r="I20" s="129"/>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="114"/>
-      <c r="B21" s="128"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="3" t="s">
         <v>395</v>
       </c>
@@ -5298,21 +4478,21 @@
         <f>Assemble!D43</f>
         <v>6</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="101">
         <f>Assemble!I43</f>
         <v>8</v>
       </c>
-      <c r="F21" s="96">
+      <c r="F21" s="95">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
-      <c r="G21" s="135"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="114"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="114"/>
-      <c r="B22" s="128"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="3" t="s">
         <v>396</v>
       </c>
@@ -5320,21 +4500,21 @@
         <f>Assemble!D49</f>
         <v>3</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="101">
         <f>Assemble!I49</f>
         <v>5</v>
       </c>
-      <c r="F22" s="96">
+      <c r="F22" s="95">
         <f t="shared" si="1"/>
         <v>0.6</v>
       </c>
-      <c r="G22" s="135"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="114"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="132"/>
       <c r="C23" s="3" t="s">
         <v>397</v>
       </c>
@@ -5342,21 +4522,21 @@
         <f>Assemble!D56</f>
         <v>5</v>
       </c>
-      <c r="E23" s="102">
+      <c r="E23" s="101">
         <f>Assemble!I56</f>
         <v>6</v>
       </c>
-      <c r="F23" s="96">
+      <c r="F23" s="95">
         <f t="shared" si="1"/>
         <v>0.83333333333333337</v>
       </c>
-      <c r="G23" s="135"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="114"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="114"/>
-      <c r="B24" s="133"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="136"/>
       <c r="C24" s="3" t="s">
         <v>398</v>
       </c>
@@ -5364,21 +4544,21 @@
         <f>Assemble!D63</f>
         <v>3</v>
       </c>
-      <c r="E24" s="102">
+      <c r="E24" s="101">
         <f>Assemble!I63</f>
         <v>6</v>
       </c>
-      <c r="F24" s="96">
+      <c r="F24" s="95">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G24" s="135"/>
-      <c r="H24" s="114"/>
-      <c r="I24" s="114"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="117"/>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="115"/>
-      <c r="B25" s="241" t="s">
+      <c r="A25" s="118"/>
+      <c r="B25" s="115" t="s">
         <v>540</v>
       </c>
       <c r="C25" s="3"/>
@@ -5386,122 +4566,122 @@
         <f>Assemble!D68</f>
         <v>0</v>
       </c>
-      <c r="E25" s="102">
+      <c r="E25" s="101">
         <f>Assemble!I68</f>
         <v>4</v>
       </c>
-      <c r="F25" s="96">
+      <c r="F25" s="95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G25" s="133"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="115"/>
+      <c r="G25" s="136"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="126" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>455</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92">
+      <c r="C26" s="90"/>
+      <c r="D26" s="91">
         <f>Marketplace!D7</f>
         <v>3</v>
       </c>
-      <c r="E26" s="110">
-        <f>[1]Marketplace!I7</f>
-        <v>5</v>
-      </c>
-      <c r="F26" s="97">
+      <c r="E26" s="109">
+        <f>Marketplace!I7</f>
+        <v>4</v>
+      </c>
+      <c r="F26" s="96">
         <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="G26" s="127">
+        <f>SUM(E26:E29)</f>
+        <v>15</v>
+      </c>
+      <c r="H26" s="124">
+        <f>Marketplace!D24</f>
         <v>0.6</v>
       </c>
-      <c r="G26" s="124">
-        <f>SUM(E26:E29)</f>
-        <v>17</v>
-      </c>
-      <c r="H26" s="121">
-        <f>Marketplace!D24</f>
-        <v>0.52941176470588236</v>
-      </c>
-      <c r="I26" s="121">
+      <c r="I26" s="124">
         <f>Marketplace!E6</f>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="114"/>
-      <c r="B27" s="91" t="s">
+      <c r="A27" s="117"/>
+      <c r="B27" s="90" t="s">
         <v>456</v>
       </c>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92">
+      <c r="C27" s="90"/>
+      <c r="D27" s="91">
         <f>Marketplace!D14</f>
         <v>2</v>
       </c>
-      <c r="E27" s="110">
-        <f>[1]Marketplace!I14</f>
-        <v>6</v>
-      </c>
-      <c r="F27" s="97">
+      <c r="E27" s="109">
+        <f>Marketplace!I14</f>
+        <v>5</v>
+      </c>
+      <c r="F27" s="96">
         <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="G27" s="136"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="114"/>
+        <v>0.4</v>
+      </c>
+      <c r="G27" s="137"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="114"/>
-      <c r="B28" s="91" t="s">
+      <c r="A28" s="117"/>
+      <c r="B28" s="90" t="s">
         <v>457</v>
       </c>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92">
+      <c r="C28" s="90"/>
+      <c r="D28" s="91">
         <f>Marketplace!D19</f>
         <v>2</v>
       </c>
-      <c r="E28" s="110">
-        <f>[1]Marketplace!I19</f>
+      <c r="E28" s="109">
+        <f>Marketplace!I19</f>
         <v>4</v>
       </c>
-      <c r="F28" s="97">
+      <c r="F28" s="96">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
-      <c r="G28" s="136"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="114"/>
+      <c r="G28" s="137"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="115"/>
-      <c r="B29" s="91" t="s">
+      <c r="A29" s="118"/>
+      <c r="B29" s="90" t="s">
         <v>458</v>
       </c>
-      <c r="C29" s="91"/>
-      <c r="D29" s="92">
+      <c r="C29" s="90"/>
+      <c r="D29" s="91">
         <f>Marketplace!D22</f>
         <v>2</v>
       </c>
-      <c r="E29" s="110">
-        <f>[1]Marketplace!I22</f>
+      <c r="E29" s="109">
+        <f>Marketplace!I22</f>
         <v>2</v>
       </c>
-      <c r="F29" s="97">
+      <c r="F29" s="96">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G29" s="125"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="115"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="130" t="s">
+      <c r="B30" s="133" t="s">
         <v>16</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -5511,30 +4691,30 @@
         <f>'DMDII Portal'!D15</f>
         <v>11</v>
       </c>
-      <c r="E30" s="111">
+      <c r="E30" s="110">
         <f>'DMDII Portal'!I15</f>
         <v>13</v>
       </c>
-      <c r="F30" s="96">
+      <c r="F30" s="95">
         <f>D30/E30</f>
         <v>0.84615384615384615</v>
       </c>
-      <c r="G30" s="132">
+      <c r="G30" s="135">
         <f>SUM(E30:E37)</f>
         <v>86</v>
       </c>
-      <c r="H30" s="121">
+      <c r="H30" s="124">
         <f>'DMDII Portal'!D97</f>
         <v>0.91860465116279066</v>
       </c>
-      <c r="I30" s="121">
+      <c r="I30" s="124">
         <f>'DMDII Portal'!E96</f>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="126"/>
-      <c r="B31" s="130"/>
+      <c r="A31" s="130"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="8" t="s">
         <v>18</v>
       </c>
@@ -5542,21 +4722,21 @@
         <f>'DMDII Portal'!D25</f>
         <v>9</v>
       </c>
-      <c r="E31" s="111">
+      <c r="E31" s="110">
         <f>'DMDII Portal'!I25</f>
         <v>9</v>
       </c>
-      <c r="F31" s="96">
+      <c r="F31" s="95">
         <f t="shared" ref="F31:F44" si="2">D31/E31</f>
         <v>1</v>
       </c>
-      <c r="G31" s="132"/>
+      <c r="G31" s="135"/>
       <c r="H31" s="129"/>
       <c r="I31" s="129"/>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="126"/>
-      <c r="B32" s="130"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="8" t="s">
         <v>38</v>
       </c>
@@ -5564,21 +4744,21 @@
         <f>'DMDII Portal'!D38</f>
         <v>12</v>
       </c>
-      <c r="E32" s="111">
+      <c r="E32" s="110">
         <f>'DMDII Portal'!I38</f>
         <v>12</v>
       </c>
-      <c r="F32" s="96">
+      <c r="F32" s="95">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G32" s="132"/>
+      <c r="G32" s="135"/>
       <c r="H32" s="129"/>
       <c r="I32" s="129"/>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="126"/>
-      <c r="B33" s="130" t="s">
+      <c r="A33" s="130"/>
+      <c r="B33" s="133" t="s">
         <v>17</v>
       </c>
       <c r="C33" s="8" t="s">
@@ -5588,21 +4768,21 @@
         <f>'DMDII Portal'!D53</f>
         <v>11</v>
       </c>
-      <c r="E33" s="111">
+      <c r="E33" s="110">
         <f>'DMDII Portal'!I53</f>
         <v>14</v>
       </c>
-      <c r="F33" s="96">
+      <c r="F33" s="95">
         <f t="shared" si="2"/>
         <v>0.7857142857142857</v>
       </c>
-      <c r="G33" s="132"/>
+      <c r="G33" s="135"/>
       <c r="H33" s="129"/>
       <c r="I33" s="129"/>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="126"/>
-      <c r="B34" s="130"/>
+      <c r="A34" s="130"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="8" t="s">
         <v>62</v>
       </c>
@@ -5610,21 +4790,21 @@
         <f>'DMDII Portal'!D67</f>
         <v>13</v>
       </c>
-      <c r="E34" s="111">
+      <c r="E34" s="110">
         <f>'DMDII Portal'!I67</f>
         <v>13</v>
       </c>
-      <c r="F34" s="96">
+      <c r="F34" s="95">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G34" s="132"/>
+      <c r="G34" s="135"/>
       <c r="H34" s="129"/>
       <c r="I34" s="129"/>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="126"/>
-      <c r="B35" s="130"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="8" t="s">
         <v>39</v>
       </c>
@@ -5632,21 +4812,21 @@
         <f>'DMDII Portal'!D85</f>
         <v>17</v>
       </c>
-      <c r="E35" s="111">
+      <c r="E35" s="110">
         <f>'DMDII Portal'!I85</f>
         <v>17</v>
       </c>
-      <c r="F35" s="96">
+      <c r="F35" s="95">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G35" s="132"/>
+      <c r="G35" s="135"/>
       <c r="H35" s="129"/>
       <c r="I35" s="129"/>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="126"/>
-      <c r="B36" s="130"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="8" t="s">
         <v>77</v>
       </c>
@@ -5654,20 +4834,20 @@
         <f>'DMDII Portal'!D93</f>
         <v>5</v>
       </c>
-      <c r="E36" s="111">
+      <c r="E36" s="110">
         <f>'DMDII Portal'!I93</f>
         <v>7</v>
       </c>
-      <c r="F36" s="96">
+      <c r="F36" s="95">
         <f t="shared" si="2"/>
         <v>0.7142857142857143</v>
       </c>
-      <c r="G36" s="132"/>
+      <c r="G36" s="135"/>
       <c r="H36" s="129"/>
       <c r="I36" s="129"/>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="126"/>
+      <c r="A37" s="130"/>
       <c r="B37" s="9" t="s">
         <v>33</v>
       </c>
@@ -5678,20 +4858,20 @@
         <f>'DMDII Portal'!D95</f>
         <v>1</v>
       </c>
-      <c r="E37" s="111">
+      <c r="E37" s="110">
         <f>'DMDII Portal'!I95</f>
         <v>1</v>
       </c>
-      <c r="F37" s="96">
+      <c r="F37" s="95">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G37" s="132"/>
-      <c r="H37" s="122"/>
-      <c r="I37" s="122"/>
+      <c r="G37" s="135"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="123" t="s">
+      <c r="A38" s="126" t="s">
         <v>205</v>
       </c>
       <c r="B38" s="17" t="s">
@@ -5702,29 +4882,29 @@
         <f>'UserDrop-down'!D11</f>
         <v>8</v>
       </c>
-      <c r="E38" s="112">
+      <c r="E38" s="111">
         <f>'UserDrop-down'!I11</f>
         <v>9</v>
       </c>
-      <c r="F38" s="97">
+      <c r="F38" s="96">
         <f t="shared" si="2"/>
         <v>0.88888888888888884</v>
       </c>
-      <c r="G38" s="124">
+      <c r="G38" s="127">
         <f>SUM(E38:E44)</f>
         <v>40</v>
       </c>
-      <c r="H38" s="121">
+      <c r="H38" s="124">
         <f>'UserDrop-down'!D53</f>
         <v>0.8</v>
       </c>
-      <c r="I38" s="121">
+      <c r="I38" s="124">
         <f>'UserDrop-down'!E52</f>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="138"/>
+      <c r="A39" s="143"/>
       <c r="B39" s="7" t="s">
         <v>138</v>
       </c>
@@ -5733,20 +4913,20 @@
         <f>'UserDrop-down'!D31</f>
         <v>15</v>
       </c>
-      <c r="E39" s="112">
+      <c r="E39" s="111">
         <f>'UserDrop-down'!I31</f>
         <v>16</v>
       </c>
-      <c r="F39" s="97">
+      <c r="F39" s="96">
         <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
-      <c r="G39" s="136"/>
+      <c r="G39" s="137"/>
       <c r="H39" s="129"/>
       <c r="I39" s="129"/>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="138"/>
+      <c r="A40" s="143"/>
       <c r="B40" s="7" t="s">
         <v>140</v>
       </c>
@@ -5755,20 +4935,20 @@
         <f>'UserDrop-down'!D39</f>
         <v>2</v>
       </c>
-      <c r="E40" s="112">
+      <c r="E40" s="111">
         <f>'UserDrop-down'!I39</f>
         <v>7</v>
       </c>
-      <c r="F40" s="97">
+      <c r="F40" s="96">
         <f>D40/E40</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="G40" s="136"/>
+      <c r="G40" s="137"/>
       <c r="H40" s="129"/>
       <c r="I40" s="129"/>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="138"/>
+      <c r="A41" s="143"/>
       <c r="B41" s="7" t="s">
         <v>139</v>
       </c>
@@ -5777,20 +4957,20 @@
         <f>'UserDrop-down'!D41</f>
         <v>1</v>
       </c>
-      <c r="E41" s="112">
+      <c r="E41" s="111">
         <f>'UserDrop-down'!I41</f>
         <v>1</v>
       </c>
-      <c r="F41" s="97">
+      <c r="F41" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G41" s="136"/>
+      <c r="G41" s="137"/>
       <c r="H41" s="129"/>
       <c r="I41" s="129"/>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="138"/>
+      <c r="A42" s="143"/>
       <c r="B42" s="7" t="s">
         <v>141</v>
       </c>
@@ -5799,20 +4979,20 @@
         <f>'UserDrop-down'!D43</f>
         <v>1</v>
       </c>
-      <c r="E42" s="112">
+      <c r="E42" s="111">
         <f>'UserDrop-down'!I43</f>
         <v>1</v>
       </c>
-      <c r="F42" s="97">
+      <c r="F42" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G42" s="136"/>
+      <c r="G42" s="137"/>
       <c r="H42" s="129"/>
       <c r="I42" s="129"/>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="138"/>
+      <c r="A43" s="143"/>
       <c r="B43" s="7" t="s">
         <v>142</v>
       </c>
@@ -5821,20 +5001,20 @@
         <f>'UserDrop-down'!D47</f>
         <v>3</v>
       </c>
-      <c r="E43" s="112">
+      <c r="E43" s="111">
         <f>'UserDrop-down'!I47</f>
         <v>3</v>
       </c>
-      <c r="F43" s="97">
+      <c r="F43" s="96">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G43" s="136"/>
+      <c r="G43" s="137"/>
       <c r="H43" s="129"/>
       <c r="I43" s="129"/>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="115"/>
+      <c r="A44" s="118"/>
       <c r="B44" s="7" t="s">
         <v>143</v>
       </c>
@@ -5843,17 +5023,17 @@
         <f>'UserDrop-down'!D51</f>
         <v>2</v>
       </c>
-      <c r="E44" s="112">
+      <c r="E44" s="111">
         <f>'UserDrop-down'!I51</f>
         <v>3</v>
       </c>
-      <c r="F44" s="97">
+      <c r="F44" s="96">
         <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="G44" s="125"/>
-      <c r="H44" s="139"/>
-      <c r="I44" s="139"/>
+      <c r="G44" s="128"/>
+      <c r="H44" s="144"/>
+      <c r="I44" s="144"/>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="16" t="s">
@@ -5867,42 +5047,42 @@
         <f>Footer!D7</f>
         <v>4</v>
       </c>
-      <c r="E45" s="102">
+      <c r="E45" s="101">
         <f>Footer!I7</f>
         <v>5</v>
       </c>
-      <c r="F45" s="96">
+      <c r="F45" s="95">
         <f>D45/E45</f>
         <v>0.8</v>
       </c>
-      <c r="G45" s="86">
+      <c r="G45" s="85">
         <f>SUM(E45)</f>
         <v>5</v>
       </c>
-      <c r="H45" s="61">
+      <c r="H45" s="60">
         <f>Footer!D8</f>
         <v>0.8</v>
       </c>
-      <c r="I45" s="61">
+      <c r="I45" s="60">
         <f>Footer!E7</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="24.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A46" s="137" t="s">
+      <c r="A46" s="142" t="s">
         <v>321</v>
       </c>
-      <c r="B46" s="137"/>
-      <c r="C46" s="137"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137"/>
-      <c r="F46" s="137"/>
-      <c r="G46" s="137"/>
-      <c r="H46" s="62">
+      <c r="B46" s="142"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="61">
         <f>(SUM(D2:D45)/SUM(E2:E45))</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="I46" s="62"/>
+      <c r="I46" s="61"/>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C47" s="5"/>
@@ -6160,16 +5340,15 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G18:G25"/>
+    <mergeCell ref="I18:I25"/>
+    <mergeCell ref="H18:H25"/>
+    <mergeCell ref="I9:I16"/>
     <mergeCell ref="A46:G46"/>
     <mergeCell ref="A38:A44"/>
     <mergeCell ref="G38:G44"/>
     <mergeCell ref="I38:I44"/>
     <mergeCell ref="H38:H44"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="G18:G25"/>
-    <mergeCell ref="I18:I25"/>
-    <mergeCell ref="H18:H25"/>
-    <mergeCell ref="I9:I16"/>
     <mergeCell ref="I30:I37"/>
     <mergeCell ref="H30:H37"/>
     <mergeCell ref="I26:I29"/>
@@ -6185,6 +5364,7 @@
     <mergeCell ref="A26:A29"/>
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="H26:H29"/>
+    <mergeCell ref="A18:A25"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="G2:G6"/>
     <mergeCell ref="H2:H6"/>
@@ -6293,7 +5473,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="59" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -6396,27 +5576,30 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="66" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.77734375" style="65" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="41.88671875" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.21875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -6442,7 +5625,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="228" t="s">
+      <c r="A2" s="232" t="s">
         <v>394</v>
       </c>
       <c r="B2" s="58" t="s">
@@ -6466,7 +5649,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="228"/>
+      <c r="A3" s="232"/>
       <c r="B3" s="58" t="s">
         <v>525</v>
       </c>
@@ -6488,11 +5671,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="172" t="s">
+      <c r="A4" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
       <c r="D4" s="4">
         <f>SUM(D2:D3)</f>
         <v>2</v>
@@ -6505,18 +5688,18 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="229" t="s">
+      <c r="A5" s="233" t="s">
         <v>415</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>521</v>
       </c>
       <c r="C5" s="27"/>
-      <c r="D5" s="94">
-        <v>1</v>
-      </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="104" t="str">
+      <c r="D5" s="93">
+        <v>1</v>
+      </c>
+      <c r="E5" s="93"/>
+      <c r="F5" s="103" t="str">
         <f>IF(G5 = 0, "DO NOT ADD",IF( G5 = 1, "Can be added", IF(G5 = 2, "Is added")))</f>
         <v>Can be added</v>
       </c>
@@ -6529,16 +5712,16 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="229"/>
-      <c r="B6" s="105" t="s">
+      <c r="A6" s="233"/>
+      <c r="B6" s="104" t="s">
         <v>525</v>
       </c>
       <c r="C6" s="27"/>
-      <c r="D6" s="94">
-        <v>0</v>
-      </c>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94" t="str">
+      <c r="D6" s="93">
+        <v>0</v>
+      </c>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93" t="str">
         <f>IF(G6 = 0, "DO NOT ADD",IF( G6 = 1, "Can be added", IF(G6 = 2, "Is added")))</f>
         <v>DO NOT ADD</v>
       </c>
@@ -6554,35 +5737,35 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="204" t="s">
+      <c r="A7" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="205"/>
-      <c r="C7" s="205"/>
+      <c r="B7" s="206"/>
+      <c r="C7" s="206"/>
       <c r="D7" s="4">
         <f>SUM(D5:D6)</f>
         <v>1</v>
       </c>
       <c r="E7" s="4"/>
-      <c r="F7" s="64"/>
+      <c r="F7" s="63"/>
       <c r="I7" s="36">
         <f>SUM(I5:I6)</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="234" t="s">
         <v>416</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="97" t="s">
         <v>522</v>
       </c>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100">
+      <c r="C8" s="98"/>
+      <c r="D8" s="99">
         <v>1</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="101" t="str">
+      <c r="F8" s="100" t="str">
         <f>IF(G8 = 0, "DO NOT ADD",IF( G8 = 1, "Can be added", IF(G8 = 2, "Is added")))</f>
         <v>Can be added</v>
       </c>
@@ -6595,12 +5778,12 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="230"/>
+      <c r="A9" s="234"/>
       <c r="B9" s="58" t="s">
         <v>529</v>
       </c>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100">
+      <c r="C9" s="98"/>
+      <c r="D9" s="99">
         <v>1</v>
       </c>
       <c r="E9" s="7"/>
@@ -6617,35 +5800,35 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="204" t="s">
+      <c r="A10" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="205"/>
-      <c r="C10" s="205"/>
-      <c r="D10" s="63">
+      <c r="B10" s="206"/>
+      <c r="C10" s="206"/>
+      <c r="D10" s="62">
         <f>SUM(D8:D9)</f>
         <v>2</v>
       </c>
       <c r="E10" s="4"/>
-      <c r="F10" s="64"/>
+      <c r="F10" s="63"/>
       <c r="I10" s="36">
         <f>SUM(I8:I9)</f>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="235" t="s">
         <v>417</v>
       </c>
-      <c r="B11" s="106" t="s">
+      <c r="B11" s="105" t="s">
         <v>523</v>
       </c>
-      <c r="C11" s="107"/>
-      <c r="D11" s="108">
-        <v>1</v>
-      </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="104" t="str">
+      <c r="C11" s="106"/>
+      <c r="D11" s="107">
+        <v>1</v>
+      </c>
+      <c r="E11" s="93"/>
+      <c r="F11" s="103" t="str">
         <f>IF(G11 = 0, "DO NOT ADD",IF( G11 = 1, "Can be added", IF(G11 = 2, "Is added")))</f>
         <v>Can be added</v>
       </c>
@@ -6658,16 +5841,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="231"/>
-      <c r="B12" s="105" t="s">
+      <c r="A12" s="235"/>
+      <c r="B12" s="104" t="s">
         <v>525</v>
       </c>
-      <c r="C12" s="107"/>
-      <c r="D12" s="108">
-        <v>0</v>
-      </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94" t="str">
+      <c r="C12" s="106"/>
+      <c r="D12" s="107">
+        <v>0</v>
+      </c>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93" t="str">
         <f>IF(G12 = 0, "DO NOT ADD",IF( G12 = 1, "Can be added", IF(G12 = 2, "Is added")))</f>
         <v>DO NOT ADD</v>
       </c>
@@ -6680,35 +5863,35 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="204" t="s">
+      <c r="A13" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="205"/>
-      <c r="C13" s="205"/>
-      <c r="D13" s="63">
+      <c r="B13" s="206"/>
+      <c r="C13" s="206"/>
+      <c r="D13" s="62">
         <f>SUM(D11:D12)</f>
         <v>1</v>
       </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="64"/>
+      <c r="F13" s="63"/>
       <c r="I13" s="36">
         <f>SUM(I11:I12)</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="234" t="s">
         <v>418</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B14" s="97" t="s">
         <v>524</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100">
+      <c r="C14" s="98"/>
+      <c r="D14" s="99">
         <v>1</v>
       </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="101" t="str">
+      <c r="F14" s="100" t="str">
         <f>IF(G14 = 0, "DO NOT ADD",IF( G14 = 1, "Can be added", IF(G14 = 2, "Is added")))</f>
         <v>Can be added</v>
       </c>
@@ -6721,14 +5904,14 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="230"/>
-      <c r="B15" s="98" t="s">
+      <c r="A15" s="234"/>
+      <c r="B15" s="97" t="s">
         <v>526</v>
       </c>
-      <c r="C15" s="235" t="s">
+      <c r="C15" s="239" t="s">
         <v>528</v>
       </c>
-      <c r="D15" s="100">
+      <c r="D15" s="99">
         <v>1</v>
       </c>
       <c r="E15" s="7"/>
@@ -6745,12 +5928,12 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="230"/>
-      <c r="B16" s="98" t="s">
+      <c r="A16" s="234"/>
+      <c r="B16" s="97" t="s">
         <v>527</v>
       </c>
-      <c r="C16" s="236"/>
-      <c r="D16" s="100">
+      <c r="C16" s="240"/>
+      <c r="D16" s="99">
         <v>0</v>
       </c>
       <c r="E16" s="7"/>
@@ -6767,33 +5950,33 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="150" t="s">
+      <c r="A17" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="B17" s="151"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="63">
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="62">
         <f>SUM(D14:D16)</f>
         <v>2</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="64"/>
+      <c r="F17" s="63"/>
       <c r="I17" s="36">
         <f>SUM(I14:I16)</f>
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="232" t="s">
+      <c r="A18" s="236" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="233"/>
-      <c r="C18" s="234"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="238"/>
       <c r="D18" s="40">
         <f>SUM(D4,D7,D10,D13,D17)</f>
         <v>8</v>
       </c>
-      <c r="E18" s="71">
+      <c r="E18" s="70">
         <f>F18/D18</f>
         <v>0</v>
       </c>
@@ -6806,11 +5989,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="117" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="232" t="s">
+      <c r="A19" s="236" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="233"/>
-      <c r="C19" s="234"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="238"/>
       <c r="D19" s="38">
         <f>D18/'Site Map QAHealth Rating'!G2</f>
         <v>0.88888888888888884</v>
@@ -6837,127 +6020,130 @@
     <mergeCell ref="A7:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="D5:D6 D2:D3">
-    <cfRule type="cellIs" dxfId="89" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" dxfId="87" priority="27" operator="lessThan">
+    <cfRule type="cellIs" dxfId="28" priority="27" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F3 F5:F6">
-    <cfRule type="containsText" dxfId="84" priority="24" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="25" priority="24" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="83" priority="25" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="26" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="81" priority="21" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="22" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="21" priority="22" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="79" priority="23" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="78" priority="18" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="19" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="20" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="75" priority="15" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="16" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="17" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="14" priority="17" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8:D9 D11:D12 D14:D16">
-    <cfRule type="cellIs" dxfId="72" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="71" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="70" priority="10" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="11" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="12" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="67" priority="7" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="8" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="containsText" dxfId="64" priority="4" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="63" priority="5" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="6" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F15)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="61" priority="1" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="2" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="46" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7003,7 +6189,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="148" t="s">
         <v>171</v>
       </c>
       <c r="B2" s="21" t="s">
@@ -7031,7 +6217,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="145"/>
+      <c r="A3" s="148"/>
       <c r="B3" s="21" t="s">
         <v>5</v>
       </c>
@@ -7057,7 +6243,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="145"/>
+      <c r="A4" s="148"/>
       <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
@@ -7083,11 +6269,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="149"/>
+      <c r="B5" s="151"/>
+      <c r="C5" s="152"/>
       <c r="D5" s="4">
         <f>SUM(D2:D4)</f>
         <v>3</v>
@@ -7100,7 +6286,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="146" t="s">
+      <c r="A6" s="149" t="s">
         <v>172</v>
       </c>
       <c r="B6" s="21" t="s">
@@ -7128,7 +6314,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="146"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="21" t="s">
         <v>170</v>
       </c>
@@ -7154,11 +6340,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="152"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
       <c r="D8" s="4">
         <f>SUM(D6:D7)</f>
         <v>2</v>
@@ -7171,11 +6357,11 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="153" t="s">
+      <c r="A9" s="156" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
+      <c r="B9" s="157"/>
+      <c r="C9" s="158"/>
       <c r="D9" s="40">
         <f>SUM(D5,D8)</f>
         <v>5</v>
@@ -7193,11 +6379,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="174" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="38">
         <f>D9/'Site Map QAHealth Rating'!G7</f>
         <v>1</v>
@@ -7217,46 +6403,49 @@
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D4 D6:D7">
-    <cfRule type="cellIs" dxfId="151" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="149" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="7" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="148" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="8" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="147" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F4 F6:F7">
-    <cfRule type="containsText" dxfId="146" priority="1" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="102" priority="1" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="2" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="101" priority="2" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="3" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="100" priority="3" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView topLeftCell="B70" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G73" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7266,7 +6455,7 @@
     <col min="3" max="3" width="65" customWidth="1"/>
     <col min="4" max="4" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.77734375" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.21875" bestFit="1" customWidth="1"/>
@@ -7299,7 +6488,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="177" t="s">
         <v>186</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -7320,7 +6509,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="146"/>
+      <c r="A3" s="149"/>
       <c r="B3" s="7" t="s">
         <v>494</v>
       </c>
@@ -7339,7 +6528,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="146"/>
+      <c r="A4" s="149"/>
       <c r="B4" s="7" t="s">
         <v>466</v>
       </c>
@@ -7358,7 +6547,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="146"/>
+      <c r="A5" s="149"/>
       <c r="B5" s="7" t="s">
         <v>495</v>
       </c>
@@ -7377,7 +6566,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="146"/>
+      <c r="A6" s="149"/>
       <c r="B6" s="7" t="s">
         <v>496</v>
       </c>
@@ -7396,7 +6585,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="146"/>
+      <c r="A7" s="149"/>
       <c r="B7" s="15" t="s">
         <v>497</v>
       </c>
@@ -7417,11 +6606,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
+      <c r="B8" s="170"/>
+      <c r="C8" s="171"/>
       <c r="D8" s="4">
         <f>SUM(D2:D7)</f>
         <v>0</v>
@@ -7435,7 +6624,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="178" t="s">
         <v>267</v>
       </c>
       <c r="B9" s="33" t="s">
@@ -7460,7 +6649,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="175"/>
+      <c r="A10" s="178"/>
       <c r="B10" s="33" t="s">
         <v>283</v>
       </c>
@@ -7483,7 +6672,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="146"/>
+      <c r="A11" s="149"/>
       <c r="B11" s="33" t="s">
         <v>269</v>
       </c>
@@ -7506,7 +6695,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="146"/>
+      <c r="A12" s="149"/>
       <c r="B12" s="24" t="s">
         <v>276</v>
       </c>
@@ -7529,7 +6718,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="146"/>
+      <c r="A13" s="149"/>
       <c r="B13" s="24" t="s">
         <v>270</v>
       </c>
@@ -7552,7 +6741,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="146"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="24" t="s">
         <v>271</v>
       </c>
@@ -7575,7 +6764,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="146"/>
+      <c r="A15" s="149"/>
       <c r="B15" s="24" t="s">
         <v>207</v>
       </c>
@@ -7598,7 +6787,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="146"/>
+      <c r="A16" s="149"/>
       <c r="B16" s="24" t="s">
         <v>342</v>
       </c>
@@ -7621,7 +6810,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="146"/>
+      <c r="A17" s="149"/>
       <c r="B17" s="24" t="s">
         <v>499</v>
       </c>
@@ -7640,11 +6829,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="169" t="s">
+      <c r="A18" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="170"/>
+      <c r="B18" s="173"/>
+      <c r="C18" s="173"/>
       <c r="D18" s="4">
         <f>SUM(D9:D16)</f>
         <v>4</v>
@@ -7658,13 +6847,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="162" t="s">
         <v>305</v>
       </c>
       <c r="B19" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="159" t="s">
+      <c r="C19" s="162" t="s">
         <v>282</v>
       </c>
       <c r="D19" s="12">
@@ -7683,11 +6872,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="160"/>
+      <c r="A20" s="163"/>
       <c r="B20" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="C20" s="161"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="12">
         <v>1</v>
       </c>
@@ -7704,11 +6893,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="160"/>
+      <c r="A21" s="163"/>
       <c r="B21" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="C21" s="161"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="12">
         <v>1</v>
       </c>
@@ -7725,11 +6914,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="160"/>
+      <c r="A22" s="163"/>
       <c r="B22" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="164"/>
       <c r="D22" s="12">
         <v>1</v>
       </c>
@@ -7746,11 +6935,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="160"/>
+      <c r="A23" s="163"/>
       <c r="B23" s="23" t="s">
         <v>212</v>
       </c>
-      <c r="C23" s="161"/>
+      <c r="C23" s="164"/>
       <c r="D23" s="12">
         <v>1</v>
       </c>
@@ -7767,11 +6956,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="160"/>
+      <c r="A24" s="163"/>
       <c r="B24" s="23" t="s">
         <v>352</v>
       </c>
-      <c r="C24" s="164"/>
+      <c r="C24" s="167"/>
       <c r="D24" s="12">
         <v>0</v>
       </c>
@@ -7788,7 +6977,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="160"/>
+      <c r="A25" s="163"/>
       <c r="B25" s="23" t="s">
         <v>220</v>
       </c>
@@ -7812,7 +7001,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="160"/>
+      <c r="A26" s="163"/>
       <c r="B26" s="23" t="s">
         <v>221</v>
       </c>
@@ -7833,7 +7022,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="160"/>
+      <c r="A27" s="163"/>
       <c r="B27" s="23" t="s">
         <v>304</v>
       </c>
@@ -7854,7 +7043,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="160"/>
+      <c r="A28" s="163"/>
       <c r="B28" s="25" t="s">
         <v>213</v>
       </c>
@@ -7877,11 +7066,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="160"/>
+      <c r="A29" s="163"/>
       <c r="B29" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="C29" s="159" t="s">
+      <c r="C29" s="162" t="s">
         <v>282</v>
       </c>
       <c r="D29" s="12">
@@ -7901,11 +7090,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="160"/>
+      <c r="A30" s="163"/>
       <c r="B30" s="23" t="s">
         <v>404</v>
       </c>
-      <c r="C30" s="160"/>
+      <c r="C30" s="163"/>
       <c r="D30" s="12">
         <v>0</v>
       </c>
@@ -7923,11 +7112,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="160"/>
+      <c r="A31" s="163"/>
       <c r="B31" s="23" t="s">
         <v>361</v>
       </c>
-      <c r="C31" s="161"/>
+      <c r="C31" s="164"/>
       <c r="D31" s="12">
         <v>1</v>
       </c>
@@ -7945,11 +7134,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="160"/>
+      <c r="A32" s="163"/>
       <c r="B32" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="C32" s="161"/>
+      <c r="C32" s="164"/>
       <c r="D32" s="12">
         <v>0</v>
       </c>
@@ -7967,11 +7156,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="160"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="C33" s="161"/>
+      <c r="C33" s="164"/>
       <c r="D33" s="12">
         <v>1</v>
       </c>
@@ -7989,11 +7178,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="160"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="161"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="12">
         <v>1</v>
       </c>
@@ -8011,11 +7200,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="160"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="23" t="s">
         <v>264</v>
       </c>
-      <c r="C35" s="162"/>
+      <c r="C35" s="165"/>
       <c r="D35" s="12">
         <v>0</v>
       </c>
@@ -8033,11 +7222,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="160"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="C36" s="162"/>
+      <c r="C36" s="165"/>
       <c r="D36" s="12">
         <v>0</v>
       </c>
@@ -8055,11 +7244,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="160"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C37" s="163"/>
+      <c r="C37" s="166"/>
       <c r="D37" s="12">
         <v>0</v>
       </c>
@@ -8077,7 +7266,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="161"/>
+      <c r="A38" s="164"/>
       <c r="B38" s="23" t="s">
         <v>228</v>
       </c>
@@ -8101,7 +7290,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="161"/>
+      <c r="A39" s="164"/>
       <c r="B39" s="23" t="s">
         <v>359</v>
       </c>
@@ -8125,7 +7314,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="161"/>
+      <c r="A40" s="164"/>
       <c r="B40" s="23" t="s">
         <v>229</v>
       </c>
@@ -8149,7 +7338,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="161"/>
+      <c r="A41" s="164"/>
       <c r="B41" s="23" t="s">
         <v>230</v>
       </c>
@@ -8173,7 +7362,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="161"/>
+      <c r="A42" s="164"/>
       <c r="B42" s="23" t="s">
         <v>232</v>
       </c>
@@ -8197,7 +7386,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="161"/>
+      <c r="A43" s="164"/>
       <c r="B43" s="23" t="s">
         <v>327</v>
       </c>
@@ -8221,7 +7410,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="161"/>
+      <c r="A44" s="164"/>
       <c r="B44" s="23" t="s">
         <v>222</v>
       </c>
@@ -8248,7 +7437,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="161"/>
+      <c r="A45" s="164"/>
       <c r="B45" s="23" t="s">
         <v>223</v>
       </c>
@@ -8272,7 +7461,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="164"/>
+      <c r="A46" s="167"/>
       <c r="B46" s="23" t="s">
         <v>224</v>
       </c>
@@ -8296,11 +7485,11 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="172" t="s">
+      <c r="A47" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="172"/>
       <c r="D47" s="4">
         <f>SUM(D19:D46)</f>
         <v>17</v>
@@ -8314,7 +7503,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="165" t="s">
+      <c r="A48" s="168" t="s">
         <v>272</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -8340,7 +7529,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="165"/>
+      <c r="A49" s="168"/>
       <c r="B49" s="31" t="s">
         <v>236</v>
       </c>
@@ -8364,11 +7553,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="165"/>
+      <c r="A50" s="168"/>
       <c r="B50" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="C50" s="166" t="s">
+      <c r="C50" s="169" t="s">
         <v>263</v>
       </c>
       <c r="D50" s="12">
@@ -8388,11 +7577,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="165"/>
+      <c r="A51" s="168"/>
       <c r="B51" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="C51" s="166"/>
+      <c r="C51" s="169"/>
       <c r="D51" s="12">
         <v>1</v>
       </c>
@@ -8410,11 +7599,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="165"/>
+      <c r="A52" s="168"/>
       <c r="B52" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="C52" s="166"/>
+      <c r="C52" s="169"/>
       <c r="D52" s="12">
         <v>1</v>
       </c>
@@ -8432,11 +7621,11 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="165"/>
+      <c r="A53" s="168"/>
       <c r="B53" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="166"/>
+      <c r="C53" s="169"/>
       <c r="D53" s="12">
         <v>1</v>
       </c>
@@ -8457,11 +7646,11 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="165"/>
+      <c r="A54" s="168"/>
       <c r="B54" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="166"/>
+      <c r="C54" s="169"/>
       <c r="D54" s="12">
         <v>1</v>
       </c>
@@ -8479,11 +7668,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="165"/>
+      <c r="A55" s="168"/>
       <c r="B55" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="166"/>
+      <c r="C55" s="169"/>
       <c r="D55" s="12">
         <v>1</v>
       </c>
@@ -8501,11 +7690,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="165"/>
+      <c r="A56" s="168"/>
       <c r="B56" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="C56" s="166"/>
+      <c r="C56" s="169"/>
       <c r="D56" s="12">
         <v>1</v>
       </c>
@@ -8523,11 +7712,11 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="165"/>
+      <c r="A57" s="168"/>
       <c r="B57" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="C57" s="166"/>
+      <c r="C57" s="169"/>
       <c r="D57" s="12">
         <v>1</v>
       </c>
@@ -8544,11 +7733,11 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="165"/>
+      <c r="A58" s="168"/>
       <c r="B58" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="C58" s="166"/>
+      <c r="C58" s="169"/>
       <c r="D58" s="12">
         <v>0</v>
       </c>
@@ -8565,11 +7754,11 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="165"/>
+      <c r="A59" s="168"/>
       <c r="B59" s="31" t="s">
         <v>247</v>
       </c>
-      <c r="C59" s="166"/>
+      <c r="C59" s="169"/>
       <c r="D59" s="12">
         <v>0</v>
       </c>
@@ -8586,11 +7775,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="165"/>
+      <c r="A60" s="168"/>
       <c r="B60" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="C60" s="166"/>
+      <c r="C60" s="169"/>
       <c r="D60" s="12">
         <v>0</v>
       </c>
@@ -8607,11 +7796,11 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="165"/>
+      <c r="A61" s="168"/>
       <c r="B61" s="31" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="166"/>
+      <c r="C61" s="169"/>
       <c r="D61" s="12">
         <v>0</v>
       </c>
@@ -8628,11 +7817,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="165"/>
+      <c r="A62" s="168"/>
       <c r="B62" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="C62" s="166"/>
+      <c r="C62" s="169"/>
       <c r="D62" s="12">
         <v>0</v>
       </c>
@@ -8649,11 +7838,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="165"/>
+      <c r="A63" s="168"/>
       <c r="B63" s="31" t="s">
         <v>427</v>
       </c>
-      <c r="C63" s="166"/>
+      <c r="C63" s="169"/>
       <c r="D63" s="12">
         <v>1</v>
       </c>
@@ -8670,11 +7859,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="165"/>
+      <c r="A64" s="168"/>
       <c r="B64" s="31" t="s">
         <v>362</v>
       </c>
-      <c r="C64" s="166"/>
+      <c r="C64" s="169"/>
       <c r="D64" s="12">
         <v>0</v>
       </c>
@@ -8691,11 +7880,11 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="165"/>
+      <c r="A65" s="168"/>
       <c r="B65" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="C65" s="166"/>
+      <c r="C65" s="169"/>
       <c r="D65" s="12">
         <v>0</v>
       </c>
@@ -8712,11 +7901,11 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="165"/>
+      <c r="A66" s="168"/>
       <c r="B66" s="31" t="s">
         <v>252</v>
       </c>
-      <c r="C66" s="166"/>
+      <c r="C66" s="169"/>
       <c r="D66" s="12">
         <v>1</v>
       </c>
@@ -8733,11 +7922,11 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="165"/>
+      <c r="A67" s="168"/>
       <c r="B67" s="31" t="s">
         <v>253</v>
       </c>
-      <c r="C67" s="166"/>
+      <c r="C67" s="169"/>
       <c r="D67" s="12">
         <v>0</v>
       </c>
@@ -8754,11 +7943,11 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="165"/>
+      <c r="A68" s="168"/>
       <c r="B68" s="31" t="s">
         <v>254</v>
       </c>
-      <c r="C68" s="166"/>
+      <c r="C68" s="169"/>
       <c r="D68" s="12">
         <v>0</v>
       </c>
@@ -8775,11 +7964,11 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="165"/>
+      <c r="A69" s="168"/>
       <c r="B69" s="31" t="s">
         <v>255</v>
       </c>
-      <c r="C69" s="166"/>
+      <c r="C69" s="169"/>
       <c r="D69" s="12">
         <v>0</v>
       </c>
@@ -8796,11 +7985,11 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="165"/>
+      <c r="A70" s="168"/>
       <c r="B70" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="C70" s="166"/>
+      <c r="C70" s="169"/>
       <c r="D70" s="12">
         <v>0</v>
       </c>
@@ -8817,11 +8006,11 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="165"/>
+      <c r="A71" s="168"/>
       <c r="B71" s="31" t="s">
         <v>257</v>
       </c>
-      <c r="C71" s="166"/>
+      <c r="C71" s="169"/>
       <c r="D71" s="12">
         <v>0</v>
       </c>
@@ -8838,11 +8027,11 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="165"/>
+      <c r="A72" s="168"/>
       <c r="B72" s="31" t="s">
         <v>258</v>
       </c>
-      <c r="C72" s="166"/>
+      <c r="C72" s="169"/>
       <c r="D72" s="12">
         <v>1</v>
       </c>
@@ -8859,11 +8048,11 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="165"/>
+      <c r="A73" s="168"/>
       <c r="B73" s="31" t="s">
         <v>259</v>
       </c>
-      <c r="C73" s="166"/>
+      <c r="C73" s="169"/>
       <c r="D73" s="12">
         <v>0</v>
       </c>
@@ -8880,11 +8069,11 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="145"/>
+      <c r="A74" s="148"/>
       <c r="B74" s="31" t="s">
         <v>260</v>
       </c>
-      <c r="C74" s="166"/>
+      <c r="C74" s="169"/>
       <c r="D74" s="12">
         <v>1</v>
       </c>
@@ -8901,11 +8090,11 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="145"/>
+      <c r="A75" s="148"/>
       <c r="B75" s="31" t="s">
         <v>261</v>
       </c>
-      <c r="C75" s="166"/>
+      <c r="C75" s="169"/>
       <c r="D75" s="12">
         <v>1</v>
       </c>
@@ -8922,11 +8111,11 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="147" t="s">
+      <c r="A76" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="167"/>
-      <c r="C76" s="168"/>
+      <c r="B76" s="170"/>
+      <c r="C76" s="171"/>
       <c r="D76" s="4">
         <f>SUM(D48:D75)</f>
         <v>15</v>
@@ -8940,16 +8129,16 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="159" t="s">
+      <c r="A77" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="B77" s="159" t="s">
+      <c r="B77" s="162" t="s">
         <v>502</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>503</v>
       </c>
-      <c r="D77" s="87">
+      <c r="D77" s="86">
         <v>1</v>
       </c>
       <c r="F77" t="str">
@@ -8965,12 +8154,12 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="161"/>
-      <c r="B78" s="161"/>
+      <c r="A78" s="164"/>
+      <c r="B78" s="164"/>
       <c r="C78" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="D78" s="87">
+      <c r="D78" s="86">
         <v>0</v>
       </c>
       <c r="F78" t="str">
@@ -8986,12 +8175,12 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="164"/>
-      <c r="B79" s="164"/>
+      <c r="A79" s="167"/>
+      <c r="B79" s="167"/>
       <c r="C79" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="D79" s="87">
+      <c r="D79" s="86">
         <v>0</v>
       </c>
       <c r="F79" t="str">
@@ -9007,12 +8196,12 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="169" t="s">
+      <c r="A80" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="B80" s="170"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="64">
+      <c r="B80" s="173"/>
+      <c r="C80" s="173"/>
+      <c r="D80" s="63">
         <f>SUM(D77)</f>
         <v>1</v>
       </c>
@@ -9025,16 +8214,16 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="82" t="s">
+      <c r="A81" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="B81" s="82" t="s">
+      <c r="B81" s="81" t="s">
         <v>500</v>
       </c>
       <c r="C81" s="31" t="s">
         <v>501</v>
       </c>
-      <c r="D81" s="87">
+      <c r="D81" s="86">
         <v>1</v>
       </c>
       <c r="F81" t="str">
@@ -9050,11 +8239,11 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="169" t="s">
+      <c r="A82" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="B82" s="170"/>
-      <c r="C82" s="170"/>
+      <c r="B82" s="173"/>
+      <c r="C82" s="173"/>
       <c r="D82" s="10">
         <f>SUM(D81)</f>
         <v>1</v>
@@ -9068,16 +8257,16 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="159" t="s">
+      <c r="A83" s="162" t="s">
         <v>190</v>
       </c>
-      <c r="B83" s="159" t="s">
+      <c r="B83" s="162" t="s">
         <v>515</v>
       </c>
       <c r="C83" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="D83" s="87">
+      <c r="D83" s="86">
         <v>0</v>
       </c>
       <c r="F83" t="str">
@@ -9093,12 +8282,12 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="160"/>
-      <c r="B84" s="161"/>
+      <c r="A84" s="163"/>
+      <c r="B84" s="164"/>
       <c r="C84" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="D84" s="87">
+      <c r="D84" s="86">
         <v>0</v>
       </c>
       <c r="F84" t="str">
@@ -9114,12 +8303,12 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="160"/>
-      <c r="B85" s="161"/>
+      <c r="A85" s="163"/>
+      <c r="B85" s="164"/>
       <c r="C85" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D85" s="87">
+      <c r="D85" s="86">
         <v>0</v>
       </c>
       <c r="F85" t="str">
@@ -9135,12 +8324,12 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="160"/>
-      <c r="B86" s="164"/>
+      <c r="A86" s="163"/>
+      <c r="B86" s="167"/>
       <c r="C86" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="D86" s="87">
+      <c r="D86" s="86">
         <v>0</v>
       </c>
       <c r="F86" t="str">
@@ -9156,14 +8345,14 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="161"/>
-      <c r="B87" s="159" t="s">
+      <c r="A87" s="164"/>
+      <c r="B87" s="162" t="s">
         <v>514</v>
       </c>
       <c r="C87" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="D87" s="87">
+      <c r="D87" s="86">
         <v>0</v>
       </c>
       <c r="F87" t="str">
@@ -9179,12 +8368,12 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="161"/>
-      <c r="B88" s="161"/>
+      <c r="A88" s="164"/>
+      <c r="B88" s="164"/>
       <c r="C88" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="D88" s="87">
+      <c r="D88" s="86">
         <v>0</v>
       </c>
       <c r="F88" t="str">
@@ -9200,12 +8389,12 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="161"/>
-      <c r="B89" s="161"/>
+      <c r="A89" s="164"/>
+      <c r="B89" s="164"/>
       <c r="C89" s="7" t="s">
         <v>512</v>
       </c>
-      <c r="D89" s="87">
+      <c r="D89" s="86">
         <v>0</v>
       </c>
       <c r="F89" t="str">
@@ -9221,12 +8410,12 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="164"/>
-      <c r="B90" s="164"/>
+      <c r="A90" s="167"/>
+      <c r="B90" s="167"/>
       <c r="C90" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="D90" s="87">
+      <c r="D90" s="86">
         <v>0</v>
       </c>
       <c r="F90" t="str">
@@ -9242,11 +8431,11 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="169" t="s">
+      <c r="A91" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="B91" s="170"/>
-      <c r="C91" s="170"/>
+      <c r="B91" s="173"/>
+      <c r="C91" s="173"/>
       <c r="D91" s="10">
         <f>SUM(D83:D90)</f>
         <v>0</v>
@@ -9260,14 +8449,14 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="159" t="s">
+      <c r="A92" s="162" t="s">
         <v>191</v>
       </c>
       <c r="B92" s="23" t="s">
         <v>533</v>
       </c>
       <c r="C92" s="23"/>
-      <c r="D92" s="87">
+      <c r="D92" s="86">
         <v>1</v>
       </c>
       <c r="F92" t="str">
@@ -9283,12 +8472,12 @@
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="161"/>
+      <c r="A93" s="164"/>
       <c r="B93" s="23" t="s">
         <v>531</v>
       </c>
       <c r="C93" s="23"/>
-      <c r="D93" s="87">
+      <c r="D93" s="86">
         <v>1</v>
       </c>
       <c r="F93" t="str">
@@ -9304,12 +8493,12 @@
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="164"/>
+      <c r="A94" s="167"/>
       <c r="B94" s="23" t="s">
         <v>532</v>
       </c>
       <c r="C94" s="23"/>
-      <c r="D94" s="87">
+      <c r="D94" s="86">
         <v>0</v>
       </c>
       <c r="F94" t="str">
@@ -9325,11 +8514,11 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="169" t="s">
+      <c r="A95" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="B95" s="169"/>
-      <c r="C95" s="169"/>
+      <c r="B95" s="172"/>
+      <c r="C95" s="172"/>
       <c r="D95" s="4">
         <f>SUM(D92:D94)</f>
         <v>2</v>
@@ -9338,16 +8527,16 @@
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="I95" s="36">
-        <f>SUM(I92:I92)</f>
-        <v>1</v>
+        <f>SUM(I92:I94)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="171" t="s">
+      <c r="A96" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="B96" s="171"/>
-      <c r="C96" s="171"/>
+      <c r="B96" s="174"/>
+      <c r="C96" s="174"/>
       <c r="D96" s="11">
         <f>SUM(D8, D18, D47, D76, D80, D82, D91, D95)</f>
         <v>40</v>
@@ -9364,21 +8553,21 @@
         <v>348</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="67.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="158" t="s">
+    <row r="97" spans="1:7" ht="89.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="158"/>
-      <c r="C97" s="158"/>
+      <c r="B97" s="161"/>
+      <c r="C97" s="161"/>
       <c r="D97" s="38">
         <f>D96/'Site Map QAHealth Rating'!G9</f>
-        <v>0.48780487804878048</v>
-      </c>
-      <c r="E97" s="156" t="s">
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="E97" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="F97" s="157"/>
-      <c r="G97" s="157"/>
+      <c r="F97" s="160"/>
+      <c r="G97" s="160"/>
     </row>
     <row r="98" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -9409,40 +8598,40 @@
     <mergeCell ref="B87:B90"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D7 D48:D75 D77:D79 D81 D83:D90 D92:D94 D19:D46 D9:D17">
-    <cfRule type="cellIs" dxfId="143" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F75 F19:F46 F81 F2:F7 F9:F17 F77:F79 F83:F90 F92:F94">
-    <cfRule type="containsText" dxfId="140" priority="4" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="96" priority="4" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="139" priority="5" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="95" priority="5" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="6" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="94" priority="6" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="137" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="136" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="92" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="135" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="91" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="37" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9453,8 +8642,8 @@
   </sheetPr>
   <dimension ref="A1:I98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="C55" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G55" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9466,7 +8655,7 @@
     <col min="5" max="5" width="7.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.44140625" style="72" customWidth="1"/>
+    <col min="8" max="8" width="94" style="71" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9497,7 +8686,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="179" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="26" t="s">
@@ -9525,7 +8714,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="176"/>
+      <c r="A3" s="179"/>
       <c r="B3" s="26" t="s">
         <v>20</v>
       </c>
@@ -9548,7 +8737,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="176"/>
+      <c r="A4" s="179"/>
       <c r="B4" s="26" t="s">
         <v>21</v>
       </c>
@@ -9571,7 +8760,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="176"/>
+      <c r="A5" s="179"/>
       <c r="B5" s="26" t="s">
         <v>22</v>
       </c>
@@ -9594,7 +8783,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="176"/>
+      <c r="A6" s="179"/>
       <c r="B6" s="26" t="s">
         <v>57</v>
       </c>
@@ -9617,7 +8806,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="176"/>
+      <c r="A7" s="179"/>
       <c r="B7" s="26" t="s">
         <v>103</v>
       </c>
@@ -9640,7 +8829,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="176"/>
+      <c r="A8" s="179"/>
       <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
@@ -9663,7 +8852,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="176"/>
+      <c r="A9" s="179"/>
       <c r="B9" s="26" t="s">
         <v>23</v>
       </c>
@@ -9686,7 +8875,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="176"/>
+      <c r="A10" s="179"/>
       <c r="B10" s="26" t="s">
         <v>24</v>
       </c>
@@ -9709,7 +8898,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="176"/>
+      <c r="A11" s="179"/>
       <c r="B11" s="26" t="s">
         <v>25</v>
       </c>
@@ -9732,7 +8921,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="176"/>
+      <c r="A12" s="179"/>
       <c r="B12" s="26" t="s">
         <v>27</v>
       </c>
@@ -9755,7 +8944,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="176"/>
+      <c r="A13" s="179"/>
       <c r="B13" s="26" t="s">
         <v>28</v>
       </c>
@@ -9778,7 +8967,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="146"/>
+      <c r="A14" s="149"/>
       <c r="B14" s="26" t="s">
         <v>342</v>
       </c>
@@ -9801,11 +8990,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="147" t="s">
+      <c r="A15" s="150" t="s">
         <v>144</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="149"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="152"/>
       <c r="D15" s="22">
         <f>SUM(D2:D14)</f>
         <v>11</v>
@@ -9819,13 +9008,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="182" t="s">
+      <c r="A16" s="185" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="181" t="s">
+      <c r="C16" s="184" t="s">
         <v>111</v>
       </c>
       <c r="D16" s="27">
@@ -9844,11 +9033,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="182"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="161"/>
+      <c r="C17" s="164"/>
       <c r="D17" s="27">
         <v>1</v>
       </c>
@@ -9865,11 +9054,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="182"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="161"/>
+      <c r="C18" s="164"/>
       <c r="D18" s="27">
         <v>1</v>
       </c>
@@ -9886,11 +9075,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="182"/>
+      <c r="A19" s="185"/>
       <c r="B19" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="C19" s="161"/>
+      <c r="C19" s="164"/>
       <c r="D19" s="27">
         <v>1</v>
       </c>
@@ -9907,11 +9096,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="182"/>
+      <c r="A20" s="185"/>
       <c r="B20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="161"/>
+      <c r="C20" s="164"/>
       <c r="D20" s="27">
         <v>1</v>
       </c>
@@ -9928,11 +9117,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="182"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="161"/>
+      <c r="C21" s="164"/>
       <c r="D21" s="27">
         <v>1</v>
       </c>
@@ -9949,11 +9138,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="182"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="161"/>
+      <c r="C22" s="164"/>
       <c r="D22" s="27">
         <v>1</v>
       </c>
@@ -9970,11 +9159,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="182"/>
+      <c r="A23" s="185"/>
       <c r="B23" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="161"/>
+      <c r="C23" s="164"/>
       <c r="D23" s="27">
         <v>1</v>
       </c>
@@ -9991,11 +9180,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="182"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="164"/>
+      <c r="C24" s="167"/>
       <c r="D24" s="27">
         <v>1</v>
       </c>
@@ -10012,11 +9201,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="172" t="s">
+      <c r="A25" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="B25" s="169"/>
-      <c r="C25" s="169"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="172"/>
       <c r="D25" s="22">
         <f>SUM(D16:D24)</f>
         <v>9</v>
@@ -10030,7 +9219,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="176" t="s">
+      <c r="A26" s="179" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="26" t="s">
@@ -10055,7 +9244,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="176"/>
+      <c r="A27" s="179"/>
       <c r="B27" s="26" t="s">
         <v>41</v>
       </c>
@@ -10078,7 +9267,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="176"/>
+      <c r="A28" s="179"/>
       <c r="B28" s="26" t="s">
         <v>42</v>
       </c>
@@ -10101,11 +9290,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="176"/>
+      <c r="A29" s="179"/>
       <c r="B29" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="177" t="s">
+      <c r="C29" s="180" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="26">
@@ -10124,11 +9313,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="176"/>
+      <c r="A30" s="179"/>
       <c r="B30" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="161"/>
+      <c r="C30" s="164"/>
       <c r="D30" s="26">
         <v>1</v>
       </c>
@@ -10145,11 +9334,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="176"/>
+      <c r="A31" s="179"/>
       <c r="B31" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="161"/>
+      <c r="C31" s="164"/>
       <c r="D31" s="26">
         <v>1</v>
       </c>
@@ -10161,7 +9350,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H31" s="72" t="s">
+      <c r="H31" s="71" t="s">
         <v>399</v>
       </c>
       <c r="I31">
@@ -10169,11 +9358,11 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="176"/>
+      <c r="A32" s="179"/>
       <c r="B32" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="161"/>
+      <c r="C32" s="164"/>
       <c r="D32" s="26">
         <v>1</v>
       </c>
@@ -10190,11 +9379,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="176"/>
+      <c r="A33" s="179"/>
       <c r="B33" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="161"/>
+      <c r="C33" s="164"/>
       <c r="D33" s="26">
         <v>1</v>
       </c>
@@ -10206,7 +9395,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H33" s="72" t="s">
+      <c r="H33" s="71" t="s">
         <v>400</v>
       </c>
       <c r="I33">
@@ -10214,11 +9403,11 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="176"/>
+      <c r="A34" s="179"/>
       <c r="B34" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="161"/>
+      <c r="C34" s="164"/>
       <c r="D34" s="26">
         <v>1</v>
       </c>
@@ -10230,7 +9419,7 @@
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="H34" s="72" t="s">
+      <c r="H34" s="71" t="s">
         <v>400</v>
       </c>
       <c r="I34">
@@ -10238,11 +9427,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="176"/>
+      <c r="A35" s="179"/>
       <c r="B35" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="161"/>
+      <c r="C35" s="164"/>
       <c r="D35" s="26">
         <v>1</v>
       </c>
@@ -10259,11 +9448,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="176"/>
+      <c r="A36" s="179"/>
       <c r="B36" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="161"/>
+      <c r="C36" s="164"/>
       <c r="D36" s="26">
         <v>1</v>
       </c>
@@ -10280,11 +9469,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="176"/>
+      <c r="A37" s="179"/>
       <c r="B37" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="164"/>
+      <c r="C37" s="167"/>
       <c r="D37" s="26">
         <v>1</v>
       </c>
@@ -10301,11 +9490,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="172" t="s">
+      <c r="A38" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
+      <c r="B38" s="172"/>
+      <c r="C38" s="172"/>
       <c r="D38" s="22">
         <f>SUM(D26:D37)</f>
         <v>12</v>
@@ -10319,7 +9508,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="30.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="181" t="s">
+      <c r="A39" s="184" t="s">
         <v>17</v>
       </c>
       <c r="B39" s="27" t="s">
@@ -10344,7 +9533,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="184"/>
+      <c r="A40" s="187"/>
       <c r="B40" s="27" t="s">
         <v>52</v>
       </c>
@@ -10367,7 +9556,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="184"/>
+      <c r="A41" s="187"/>
       <c r="B41" s="27" t="s">
         <v>53</v>
       </c>
@@ -10390,7 +9579,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="184"/>
+      <c r="A42" s="187"/>
       <c r="B42" s="27" t="s">
         <v>54</v>
       </c>
@@ -10413,7 +9602,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="184"/>
+      <c r="A43" s="187"/>
       <c r="B43" s="27" t="s">
         <v>55</v>
       </c>
@@ -10431,7 +9620,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H43" s="72" t="s">
+      <c r="H43" s="71" t="s">
         <v>401</v>
       </c>
       <c r="I43">
@@ -10439,7 +9628,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="184"/>
+      <c r="A44" s="187"/>
       <c r="B44" s="27" t="s">
         <v>56</v>
       </c>
@@ -10462,7 +9651,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="184"/>
+      <c r="A45" s="187"/>
       <c r="B45" s="27" t="s">
         <v>122</v>
       </c>
@@ -10485,7 +9674,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="184"/>
+      <c r="A46" s="187"/>
       <c r="B46" s="27" t="s">
         <v>58</v>
       </c>
@@ -10508,7 +9697,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="184"/>
+      <c r="A47" s="187"/>
       <c r="B47" s="27" t="s">
         <v>59</v>
       </c>
@@ -10531,7 +9720,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="184"/>
+      <c r="A48" s="187"/>
       <c r="B48" s="27" t="s">
         <v>60</v>
       </c>
@@ -10554,7 +9743,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="184"/>
+      <c r="A49" s="187"/>
       <c r="B49" s="27" t="s">
         <v>61</v>
       </c>
@@ -10577,7 +9766,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="184"/>
+      <c r="A50" s="187"/>
       <c r="B50" s="27" t="s">
         <v>63</v>
       </c>
@@ -10600,7 +9789,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="184"/>
+      <c r="A51" s="187"/>
       <c r="B51" s="24" t="s">
         <v>342</v>
       </c>
@@ -10623,7 +9812,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="163"/>
+      <c r="A52" s="166"/>
       <c r="B52" s="27" t="s">
         <v>124</v>
       </c>
@@ -10646,11 +9835,11 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="173" t="s">
+      <c r="A53" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="B53" s="148"/>
-      <c r="C53" s="149"/>
+      <c r="B53" s="151"/>
+      <c r="C53" s="152"/>
       <c r="D53" s="22">
         <f>SUM(D39:D52)</f>
         <v>11</v>
@@ -10664,13 +9853,13 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="176" t="s">
+      <c r="A54" s="179" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C54" s="177" t="s">
+      <c r="C54" s="180" t="s">
         <v>130</v>
       </c>
       <c r="D54" s="26">
@@ -10689,11 +9878,11 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="176"/>
+      <c r="A55" s="179"/>
       <c r="B55" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C55" s="161"/>
+      <c r="C55" s="164"/>
       <c r="D55" s="26">
         <v>1</v>
       </c>
@@ -10710,11 +9899,11 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="176"/>
+      <c r="A56" s="179"/>
       <c r="B56" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="C56" s="161"/>
+      <c r="C56" s="164"/>
       <c r="D56" s="26">
         <v>1</v>
       </c>
@@ -10731,11 +9920,11 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="176"/>
+      <c r="A57" s="179"/>
       <c r="B57" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="C57" s="161"/>
+      <c r="C57" s="164"/>
       <c r="D57" s="26">
         <v>1</v>
       </c>
@@ -10752,11 +9941,11 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="176"/>
+      <c r="A58" s="179"/>
       <c r="B58" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="C58" s="161"/>
+      <c r="C58" s="164"/>
       <c r="D58" s="26">
         <v>1</v>
       </c>
@@ -10773,11 +9962,11 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="176"/>
+      <c r="A59" s="179"/>
       <c r="B59" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="C59" s="161"/>
+      <c r="C59" s="164"/>
       <c r="D59" s="26">
         <v>1</v>
       </c>
@@ -10794,11 +9983,11 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="176"/>
+      <c r="A60" s="179"/>
       <c r="B60" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="161"/>
+      <c r="C60" s="164"/>
       <c r="D60" s="26">
         <v>1</v>
       </c>
@@ -10815,11 +10004,11 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="176"/>
+      <c r="A61" s="179"/>
       <c r="B61" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="C61" s="161"/>
+      <c r="C61" s="164"/>
       <c r="D61" s="26">
         <v>1</v>
       </c>
@@ -10836,11 +10025,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="176"/>
+      <c r="A62" s="179"/>
       <c r="B62" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="161"/>
+      <c r="C62" s="164"/>
       <c r="D62" s="26">
         <v>1</v>
       </c>
@@ -10857,11 +10046,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="176"/>
+      <c r="A63" s="179"/>
       <c r="B63" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="164"/>
+      <c r="C63" s="167"/>
       <c r="D63" s="26">
         <v>1</v>
       </c>
@@ -10878,11 +10067,11 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="176"/>
+      <c r="A64" s="179"/>
       <c r="B64" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="C64" s="177" t="s">
+      <c r="C64" s="180" t="s">
         <v>131</v>
       </c>
       <c r="D64" s="26">
@@ -10901,11 +10090,11 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="176"/>
+      <c r="A65" s="179"/>
       <c r="B65" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="161"/>
+      <c r="C65" s="164"/>
       <c r="D65" s="26">
         <v>1</v>
       </c>
@@ -10922,11 +10111,11 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="176"/>
+      <c r="A66" s="179"/>
       <c r="B66" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="C66" s="164"/>
+      <c r="C66" s="167"/>
       <c r="D66" s="26">
         <v>1</v>
       </c>
@@ -10943,11 +10132,11 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="172" t="s">
+      <c r="A67" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="B67" s="169"/>
-      <c r="C67" s="169"/>
+      <c r="B67" s="172"/>
+      <c r="C67" s="172"/>
       <c r="D67" s="22">
         <f>SUM(D54:D66)</f>
         <v>13</v>
@@ -10961,7 +10150,7 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="181" t="s">
+      <c r="A68" s="184" t="s">
         <v>39</v>
       </c>
       <c r="B68" s="27" t="s">
@@ -10981,7 +10170,7 @@
         <f>SUM(D68:E68)</f>
         <v>1</v>
       </c>
-      <c r="H68" s="72" t="s">
+      <c r="H68" s="71" t="s">
         <v>402</v>
       </c>
       <c r="I68">
@@ -10989,11 +10178,11 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="184"/>
+      <c r="A69" s="187"/>
       <c r="B69" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="C69" s="181" t="s">
+      <c r="C69" s="184" t="s">
         <v>134</v>
       </c>
       <c r="D69" s="27">
@@ -11012,11 +10201,11 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="184"/>
+      <c r="A70" s="187"/>
       <c r="B70" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C70" s="161"/>
+      <c r="C70" s="164"/>
       <c r="D70" s="27">
         <v>1</v>
       </c>
@@ -11033,11 +10222,11 @@
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="184"/>
+      <c r="A71" s="187"/>
       <c r="B71" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="161"/>
+      <c r="C71" s="164"/>
       <c r="D71" s="27">
         <v>1</v>
       </c>
@@ -11054,11 +10243,11 @@
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="184"/>
+      <c r="A72" s="187"/>
       <c r="B72" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="C72" s="161"/>
+      <c r="C72" s="164"/>
       <c r="D72" s="27">
         <v>1</v>
       </c>
@@ -11075,11 +10264,11 @@
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="184"/>
+      <c r="A73" s="187"/>
       <c r="B73" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="C73" s="161"/>
+      <c r="C73" s="164"/>
       <c r="D73" s="27">
         <v>1</v>
       </c>
@@ -11096,11 +10285,11 @@
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="184"/>
+      <c r="A74" s="187"/>
       <c r="B74" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C74" s="161"/>
+      <c r="C74" s="164"/>
       <c r="D74" s="27">
         <v>1</v>
       </c>
@@ -11117,11 +10306,11 @@
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="184"/>
+      <c r="A75" s="187"/>
       <c r="B75" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="161"/>
+      <c r="C75" s="164"/>
       <c r="D75" s="27">
         <v>1</v>
       </c>
@@ -11138,11 +10327,11 @@
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="184"/>
+      <c r="A76" s="187"/>
       <c r="B76" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="161"/>
+      <c r="C76" s="164"/>
       <c r="D76" s="27">
         <v>1</v>
       </c>
@@ -11159,11 +10348,11 @@
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="184"/>
+      <c r="A77" s="187"/>
       <c r="B77" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C77" s="161"/>
+      <c r="C77" s="164"/>
       <c r="D77" s="27">
         <v>1</v>
       </c>
@@ -11180,11 +10369,11 @@
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="184"/>
+      <c r="A78" s="187"/>
       <c r="B78" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C78" s="161"/>
+      <c r="C78" s="164"/>
       <c r="D78" s="27">
         <v>1</v>
       </c>
@@ -11201,11 +10390,11 @@
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="184"/>
+      <c r="A79" s="187"/>
       <c r="B79" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="161"/>
+      <c r="C79" s="164"/>
       <c r="D79" s="27">
         <v>1</v>
       </c>
@@ -11222,11 +10411,11 @@
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="184"/>
+      <c r="A80" s="187"/>
       <c r="B80" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="161"/>
+      <c r="C80" s="164"/>
       <c r="D80" s="27">
         <v>1</v>
       </c>
@@ -11243,11 +10432,11 @@
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="184"/>
+      <c r="A81" s="187"/>
       <c r="B81" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="C81" s="161"/>
+      <c r="C81" s="164"/>
       <c r="D81" s="27">
         <v>1</v>
       </c>
@@ -11264,11 +10453,11 @@
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="184"/>
+      <c r="A82" s="187"/>
       <c r="B82" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C82" s="161"/>
+      <c r="C82" s="164"/>
       <c r="D82" s="27">
         <v>1</v>
       </c>
@@ -11285,11 +10474,11 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="184"/>
+      <c r="A83" s="187"/>
       <c r="B83" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C83" s="164"/>
+      <c r="C83" s="167"/>
       <c r="D83" s="27">
         <v>1</v>
       </c>
@@ -11306,11 +10495,11 @@
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="164"/>
+      <c r="A84" s="167"/>
       <c r="B84" s="27" t="s">
         <v>423</v>
       </c>
-      <c r="C84" s="70" t="s">
+      <c r="C84" s="69" t="s">
         <v>424</v>
       </c>
       <c r="D84" s="27">
@@ -11329,11 +10518,11 @@
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="172" t="s">
+      <c r="A85" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="B85" s="169"/>
-      <c r="C85" s="169"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
       <c r="D85" s="22">
         <f>SUM(D68:D84)</f>
         <v>17</v>
@@ -11347,7 +10536,7 @@
       </c>
     </row>
     <row r="86" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="177" t="s">
+      <c r="A86" s="180" t="s">
         <v>77</v>
       </c>
       <c r="B86" s="26" t="s">
@@ -11372,11 +10561,11 @@
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="183"/>
+      <c r="A87" s="186"/>
       <c r="B87" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="C87" s="74" t="s">
+      <c r="C87" s="73" t="s">
         <v>421</v>
       </c>
       <c r="D87" s="26">
@@ -11395,11 +10584,11 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="183"/>
+      <c r="A88" s="186"/>
       <c r="B88" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="C88" s="177" t="s">
+      <c r="C88" s="180" t="s">
         <v>135</v>
       </c>
       <c r="D88" s="26">
@@ -11418,11 +10607,11 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="183"/>
+      <c r="A89" s="186"/>
       <c r="B89" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="161"/>
+      <c r="C89" s="164"/>
       <c r="D89" s="26">
         <v>1</v>
       </c>
@@ -11439,11 +10628,11 @@
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="183"/>
+      <c r="A90" s="186"/>
       <c r="B90" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="C90" s="164"/>
+      <c r="C90" s="167"/>
       <c r="D90" s="26">
         <v>1</v>
       </c>
@@ -11460,11 +10649,11 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="161"/>
+      <c r="A91" s="164"/>
       <c r="B91" s="26" t="s">
         <v>433</v>
       </c>
-      <c r="C91" s="78" t="s">
+      <c r="C91" s="77" t="s">
         <v>434</v>
       </c>
       <c r="D91" s="26">
@@ -11478,17 +10667,17 @@
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="H91" s="75"/>
+      <c r="H91" s="74"/>
       <c r="I91">
         <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="164"/>
+      <c r="A92" s="167"/>
       <c r="B92" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="C92" s="77" t="s">
         <v>435</v>
       </c>
       <c r="D92" s="26">
@@ -11502,17 +10691,17 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="H92" s="75"/>
+      <c r="H92" s="74"/>
       <c r="I92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="172" t="s">
+      <c r="A93" s="175" t="s">
         <v>144</v>
       </c>
-      <c r="B93" s="169"/>
-      <c r="C93" s="169"/>
+      <c r="B93" s="172"/>
+      <c r="C93" s="172"/>
       <c r="D93" s="22">
         <f>SUM(D86:D92)</f>
         <v>5</v>
@@ -11551,11 +10740,11 @@
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="178" t="s">
+      <c r="A95" s="181" t="s">
         <v>144</v>
       </c>
-      <c r="B95" s="179"/>
-      <c r="C95" s="180"/>
+      <c r="B95" s="182"/>
+      <c r="C95" s="183"/>
       <c r="D95" s="28">
         <f>D94</f>
         <v>1</v>
@@ -11569,11 +10758,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="188" t="s">
+      <c r="A96" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="B96" s="167"/>
-      <c r="C96" s="168"/>
+      <c r="B96" s="170"/>
+      <c r="C96" s="171"/>
       <c r="D96" s="29">
         <f>SUM(D15,D25, D38, D53, D67, D85, D93, D95)</f>
         <v>79</v>
@@ -11591,20 +10780,20 @@
       </c>
     </row>
     <row r="97" spans="1:7" ht="97.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="185" t="s">
+      <c r="A97" s="188" t="s">
         <v>146</v>
       </c>
-      <c r="B97" s="186"/>
-      <c r="C97" s="187"/>
+      <c r="B97" s="189"/>
+      <c r="C97" s="190"/>
       <c r="D97" s="47">
         <f>(D96/'Site Map QAHealth Rating'!G30)</f>
         <v>0.91860465116279066</v>
       </c>
-      <c r="E97" s="156" t="s">
+      <c r="E97" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="F97" s="157"/>
-      <c r="G97" s="157"/>
+      <c r="F97" s="160"/>
+      <c r="G97" s="160"/>
     </row>
     <row r="98" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -11635,46 +10824,49 @@
     <mergeCell ref="A68:A84"/>
   </mergeCells>
   <conditionalFormatting sqref="D39:D52 D54:D66 D68:D84 D86:D92 D94 D26:D37 D16:D24 D2:D14">
-    <cfRule type="cellIs" dxfId="134" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F84 F94 F2:F14 F16:F24 F26:F37 F39:F52 F54:F66 F86:F92">
-    <cfRule type="containsText" dxfId="132" priority="4" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="88" priority="4" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="131" priority="5" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="87" priority="5" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="6" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="86" priority="6" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E96">
-    <cfRule type="cellIs" dxfId="129" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="128" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="84" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="127" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="83" priority="3" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="38" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="29" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView topLeftCell="C43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G4" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11686,7 +10878,7 @@
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="27.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11720,7 +10912,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="192" t="s">
         <v>137</v>
       </c>
       <c r="B2" s="23" t="s">
@@ -11745,7 +10937,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="190"/>
+      <c r="A3" s="193"/>
       <c r="B3" s="23" t="s">
         <v>182</v>
       </c>
@@ -11768,7 +10960,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="44.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="190"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="23" t="s">
         <v>219</v>
       </c>
@@ -11791,7 +10983,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="190"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="30" t="s">
         <v>147</v>
       </c>
@@ -11814,7 +11006,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="190"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="23" t="s">
         <v>148</v>
       </c>
@@ -11837,11 +11029,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="190"/>
-      <c r="B7" s="159" t="s">
+      <c r="A7" s="193"/>
+      <c r="B7" s="162" t="s">
         <v>149</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="75" t="s">
         <v>290</v>
       </c>
       <c r="D7" s="21">
@@ -11860,9 +11052,9 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="191"/>
-      <c r="B8" s="161"/>
-      <c r="C8" s="76" t="s">
+      <c r="A8" s="194"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="75" t="s">
         <v>329</v>
       </c>
       <c r="D8" s="21">
@@ -11881,9 +11073,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="191"/>
-      <c r="B9" s="161"/>
-      <c r="C9" s="76" t="s">
+      <c r="A9" s="194"/>
+      <c r="B9" s="164"/>
+      <c r="C9" s="75" t="s">
         <v>330</v>
       </c>
       <c r="D9" s="21">
@@ -11902,9 +11094,9 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="191"/>
-      <c r="B10" s="164"/>
-      <c r="C10" s="73" t="s">
+      <c r="A10" s="194"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="72" t="s">
         <v>419</v>
       </c>
       <c r="D10" s="21">
@@ -11923,11 +11115,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="195" t="s">
+      <c r="A11" s="198" t="s">
         <v>144</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="197"/>
+      <c r="B11" s="199"/>
+      <c r="C11" s="200"/>
       <c r="D11" s="22">
         <f>SUM(D2:D10)</f>
         <v>8</v>
@@ -11941,10 +11133,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="169" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="195" t="s">
         <v>303</v>
       </c>
       <c r="C12" s="31" t="s">
@@ -11966,8 +11158,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="166"/>
-      <c r="B13" s="193"/>
+      <c r="A13" s="169"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="31" t="s">
         <v>247</v>
       </c>
@@ -11987,8 +11179,8 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="166"/>
-      <c r="B14" s="161"/>
+      <c r="A14" s="169"/>
+      <c r="B14" s="164"/>
       <c r="C14" s="31" t="s">
         <v>295</v>
       </c>
@@ -12008,8 +11200,8 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="166"/>
-      <c r="B15" s="161"/>
+      <c r="A15" s="169"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="31" t="s">
         <v>296</v>
       </c>
@@ -12029,8 +11221,8 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="166"/>
-      <c r="B16" s="161"/>
+      <c r="A16" s="169"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="31" t="s">
         <v>297</v>
       </c>
@@ -12050,8 +11242,8 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="166"/>
-      <c r="B17" s="161"/>
+      <c r="A17" s="169"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="31" t="s">
         <v>298</v>
       </c>
@@ -12071,8 +11263,8 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="166"/>
-      <c r="B18" s="161"/>
+      <c r="A18" s="169"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="31" t="s">
         <v>299</v>
       </c>
@@ -12092,8 +11284,8 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="166"/>
-      <c r="B19" s="161"/>
+      <c r="A19" s="169"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="31" t="s">
         <v>300</v>
       </c>
@@ -12113,8 +11305,8 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="166"/>
-      <c r="B20" s="161"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="31" t="s">
         <v>301</v>
       </c>
@@ -12134,8 +11326,8 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="166"/>
-      <c r="B21" s="164"/>
+      <c r="A21" s="169"/>
+      <c r="B21" s="167"/>
       <c r="C21" s="31" t="s">
         <v>302</v>
       </c>
@@ -12155,7 +11347,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="166"/>
+      <c r="A22" s="169"/>
       <c r="B22" s="44" t="s">
         <v>351</v>
       </c>
@@ -12178,11 +11370,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="166"/>
+      <c r="A23" s="169"/>
       <c r="B23" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="166" t="s">
+      <c r="C23" s="169" t="s">
         <v>291</v>
       </c>
       <c r="D23" s="21">
@@ -12201,11 +11393,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="166"/>
+      <c r="A24" s="169"/>
       <c r="B24" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="146"/>
+      <c r="C24" s="149"/>
       <c r="D24" s="21">
         <v>0</v>
       </c>
@@ -12222,11 +11414,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="166"/>
+      <c r="A25" s="169"/>
       <c r="B25" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="C25" s="146"/>
+      <c r="C25" s="149"/>
       <c r="D25" s="21">
         <v>0</v>
       </c>
@@ -12243,11 +11435,11 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="166"/>
+      <c r="A26" s="169"/>
       <c r="B26" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="C26" s="146"/>
+      <c r="C26" s="149"/>
       <c r="D26" s="21">
         <v>0</v>
       </c>
@@ -12264,11 +11456,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="166"/>
+      <c r="A27" s="169"/>
       <c r="B27" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="C27" s="146"/>
+      <c r="C27" s="149"/>
       <c r="D27" s="21">
         <v>1</v>
       </c>
@@ -12285,11 +11477,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="166"/>
+      <c r="A28" s="169"/>
       <c r="B28" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="C28" s="146"/>
+      <c r="C28" s="149"/>
       <c r="D28" s="21">
         <v>1</v>
       </c>
@@ -12306,7 +11498,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="166"/>
+      <c r="A29" s="169"/>
       <c r="B29" s="31" t="s">
         <v>155</v>
       </c>
@@ -12329,7 +11521,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="166"/>
+      <c r="A30" s="169"/>
       <c r="B30" s="31" t="s">
         <v>156</v>
       </c>
@@ -12352,11 +11544,11 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="169" t="s">
+      <c r="A31" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="B31" s="170"/>
-      <c r="C31" s="170"/>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
       <c r="D31" s="22">
         <f>SUM(D12:D30)</f>
         <v>15</v>
@@ -12370,7 +11562,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="159" t="s">
+      <c r="A32" s="162" t="s">
         <v>159</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -12395,7 +11587,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="160"/>
+      <c r="A33" s="163"/>
       <c r="B33" s="23" t="s">
         <v>163</v>
       </c>
@@ -12418,7 +11610,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="160"/>
+      <c r="A34" s="163"/>
       <c r="B34" s="23" t="s">
         <v>164</v>
       </c>
@@ -12441,7 +11633,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="160"/>
+      <c r="A35" s="163"/>
       <c r="B35" s="23" t="s">
         <v>165</v>
       </c>
@@ -12464,7 +11656,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="160"/>
+      <c r="A36" s="163"/>
       <c r="B36" s="23" t="s">
         <v>166</v>
       </c>
@@ -12487,11 +11679,11 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="160"/>
+      <c r="A37" s="163"/>
       <c r="B37" s="23" t="s">
         <v>167</v>
       </c>
-      <c r="C37" s="159" t="s">
+      <c r="C37" s="162" t="s">
         <v>311</v>
       </c>
       <c r="D37" s="21">
@@ -12510,11 +11702,11 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="198"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="C38" s="164"/>
+      <c r="C38" s="167"/>
       <c r="D38" s="21">
         <v>1</v>
       </c>
@@ -12531,11 +11723,11 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="169" t="s">
+      <c r="A39" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
+      <c r="B39" s="173"/>
+      <c r="C39" s="173"/>
       <c r="D39" s="22">
         <f>SUM(D32:D38)</f>
         <v>2</v>
@@ -12558,7 +11750,7 @@
       <c r="C40" s="57" t="s">
         <v>410</v>
       </c>
-      <c r="D40" s="60">
+      <c r="D40" s="59">
         <v>1</v>
       </c>
       <c r="E40" s="6"/>
@@ -12575,11 +11767,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="172" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
       <c r="D41" s="22">
         <f>SUM(D40)</f>
         <v>1</v>
@@ -12618,11 +11810,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="173" t="s">
+      <c r="A43" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="168"/>
+      <c r="B43" s="170"/>
+      <c r="C43" s="171"/>
       <c r="D43" s="22">
         <f>D42</f>
         <v>1</v>
@@ -12636,13 +11828,13 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="159" t="s">
+      <c r="A44" s="162" t="s">
         <v>161</v>
       </c>
       <c r="B44" s="23" t="s">
         <v>358</v>
       </c>
-      <c r="C44" s="174" t="s">
+      <c r="C44" s="177" t="s">
         <v>312</v>
       </c>
       <c r="D44" s="21">
@@ -12661,11 +11853,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="161"/>
+      <c r="A45" s="164"/>
       <c r="B45" s="23" t="s">
         <v>357</v>
       </c>
-      <c r="C45" s="146"/>
+      <c r="C45" s="149"/>
       <c r="D45" s="21">
         <v>1</v>
       </c>
@@ -12682,11 +11874,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="164"/>
+      <c r="A46" s="167"/>
       <c r="B46" s="23" t="s">
         <v>356</v>
       </c>
-      <c r="C46" s="146"/>
+      <c r="C46" s="149"/>
       <c r="D46" s="21">
         <v>1</v>
       </c>
@@ -12703,11 +11895,11 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="173" t="s">
+      <c r="A47" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="B47" s="167"/>
-      <c r="C47" s="168"/>
+      <c r="B47" s="170"/>
+      <c r="C47" s="171"/>
       <c r="D47" s="22">
         <f>SUM(D44:D46)</f>
         <v>3</v>
@@ -12721,7 +11913,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="192" t="s">
+      <c r="A48" s="195" t="s">
         <v>143</v>
       </c>
       <c r="B48" s="31" t="s">
@@ -12746,7 +11938,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="193"/>
+      <c r="A49" s="196"/>
       <c r="B49" s="31" t="s">
         <v>175</v>
       </c>
@@ -12769,7 +11961,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="194"/>
+      <c r="A50" s="197"/>
       <c r="B50" s="31" t="s">
         <v>176</v>
       </c>
@@ -12790,11 +11982,11 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="173" t="s">
+      <c r="A51" s="176" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="167"/>
-      <c r="C51" s="168"/>
+      <c r="B51" s="170"/>
+      <c r="C51" s="171"/>
       <c r="D51" s="22">
         <f>SUM(D48:D50)</f>
         <v>2</v>
@@ -12808,11 +12000,11 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="188" t="s">
+      <c r="A52" s="191" t="s">
         <v>145</v>
       </c>
-      <c r="B52" s="167"/>
-      <c r="C52" s="168"/>
+      <c r="B52" s="170"/>
+      <c r="C52" s="171"/>
       <c r="D52" s="29">
         <f>SUM(D11, D31, D39, D41, D43, D47, D51)</f>
         <v>32</v>
@@ -12830,20 +12022,20 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="104.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="185" t="s">
+      <c r="A53" s="188" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="186"/>
-      <c r="C53" s="187"/>
+      <c r="B53" s="189"/>
+      <c r="C53" s="190"/>
       <c r="D53" s="47">
         <f>D52/'Site Map QAHealth Rating'!G38</f>
         <v>0.8</v>
       </c>
-      <c r="E53" s="156" t="s">
+      <c r="E53" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
+      <c r="F53" s="160"/>
+      <c r="G53" s="160"/>
     </row>
     <row r="54" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
@@ -12870,65 +12062,68 @@
     <mergeCell ref="A11:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="D32:D38 D42 D44:D46 D48:D50 D2:D10 D12:D30">
-    <cfRule type="cellIs" dxfId="126" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="cellIs" dxfId="124" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="12" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="79" priority="13" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F10 F12:F30 F32:F38 F42 F44:F46 F48:F50">
-    <cfRule type="containsText" dxfId="121" priority="9" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="10" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="76" priority="10" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="11" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="75" priority="11" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="cellIs" dxfId="118" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="116" priority="4" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="72" priority="4" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="115" priority="5" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="6" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="70" priority="6" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="49" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12939,7 +12134,9 @@
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.5546875" customWidth="1"/>
     <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12975,7 +12172,7 @@
       <c r="B2" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="202" t="s">
         <v>317</v>
       </c>
       <c r="D2" s="21">
@@ -13000,7 +12197,7 @@
       <c r="B3" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="C3" s="161"/>
+      <c r="C3" s="164"/>
       <c r="D3" s="21">
         <v>0</v>
       </c>
@@ -13023,7 +12220,7 @@
       <c r="B4" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="C4" s="161"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="21">
         <v>1</v>
       </c>
@@ -13046,7 +12243,7 @@
       <c r="B5" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="C5" s="161"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="21">
         <v>1</v>
       </c>
@@ -13069,7 +12266,7 @@
       <c r="B6" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="C6" s="161"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="21">
         <v>1</v>
       </c>
@@ -13086,11 +12283,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="174" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="171"/>
-      <c r="C7" s="171"/>
+      <c r="B7" s="174"/>
+      <c r="C7" s="174"/>
       <c r="D7" s="29">
         <f>SUM(D2:D6)</f>
         <v>4</v>
@@ -13112,11 +12309,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="188.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="158" t="s">
+      <c r="A8" s="161" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="158"/>
-      <c r="C8" s="158"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="47">
         <f>D7/'Site Map QAHealth Rating'!E45</f>
         <v>0.8</v>
@@ -13133,59 +12330,62 @@
     <mergeCell ref="C2:C6"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D6">
-    <cfRule type="cellIs" dxfId="113" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="111" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="110" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="65" priority="6" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F6">
-    <cfRule type="containsText" dxfId="108" priority="1" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="2" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="3" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="62" priority="3" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="72" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView topLeftCell="C55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="51.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="87.77734375" style="77" customWidth="1"/>
+    <col min="3" max="3" width="87.77734375" style="76" customWidth="1"/>
     <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.109375" customWidth="1"/>
-    <col min="9" max="9" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13215,10 +12415,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="76.2" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="201" t="s">
+      <c r="A2" s="221" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="84" t="s">
         <v>492</v>
       </c>
       <c r="C2" s="26" t="s">
@@ -13240,7 +12440,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="128"/>
+      <c r="A3" s="132"/>
       <c r="B3" s="2" t="s">
         <v>493</v>
       </c>
@@ -13263,7 +12463,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="133"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="2" t="s">
         <v>197</v>
       </c>
@@ -13286,11 +12486,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="204" t="s">
+      <c r="A5" s="205" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="205"/>
-      <c r="C5" s="205"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="206"/>
       <c r="D5" s="4">
         <f>SUM(D2:D4)</f>
         <v>1</v>
@@ -13304,10 +12504,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="131" t="s">
+      <c r="A6" s="134" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="134" t="s">
+      <c r="B6" s="140" t="s">
         <v>482</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -13329,8 +12529,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="200"/>
-      <c r="B7" s="128"/>
+      <c r="A7" s="219"/>
+      <c r="B7" s="132"/>
       <c r="C7" s="19" t="s">
         <v>488</v>
       </c>
@@ -13350,8 +12550,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="200"/>
-      <c r="B8" s="128"/>
+      <c r="A8" s="219"/>
+      <c r="B8" s="132"/>
       <c r="C8" s="19" t="s">
         <v>489</v>
       </c>
@@ -13371,8 +12571,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="200"/>
-      <c r="B9" s="128"/>
+      <c r="A9" s="219"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="19" t="s">
         <v>490</v>
       </c>
@@ -13392,8 +12592,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="200"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="219"/>
+      <c r="B10" s="136"/>
       <c r="C10" s="19" t="s">
         <v>491</v>
       </c>
@@ -13413,8 +12613,8 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="200"/>
-      <c r="B11" s="131" t="s">
+      <c r="A11" s="219"/>
+      <c r="B11" s="134" t="s">
         <v>483</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -13436,8 +12636,8 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="200"/>
-      <c r="B12" s="200"/>
+      <c r="A12" s="219"/>
+      <c r="B12" s="219"/>
       <c r="C12" s="19" t="s">
         <v>486</v>
       </c>
@@ -13457,8 +12657,8 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="200"/>
-      <c r="B13" s="86" t="s">
+      <c r="A13" s="219"/>
+      <c r="B13" s="85" t="s">
         <v>197</v>
       </c>
       <c r="C13" s="31" t="s">
@@ -13480,11 +12680,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="150" t="s">
+      <c r="A14" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="151"/>
-      <c r="C14" s="152"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="4">
         <f>SUM(D6:D7)</f>
         <v>0</v>
@@ -13498,7 +12698,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="209" t="s">
+      <c r="A15" s="210" t="s">
         <v>139</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -13523,7 +12723,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="210"/>
+      <c r="A16" s="211"/>
       <c r="B16" s="2" t="s">
         <v>158</v>
       </c>
@@ -13546,7 +12746,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="210"/>
+      <c r="A17" s="211"/>
       <c r="B17" s="2" t="s">
         <v>324</v>
       </c>
@@ -13569,7 +12769,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="210"/>
+      <c r="A18" s="211"/>
       <c r="B18" s="2" t="s">
         <v>325</v>
       </c>
@@ -13592,7 +12792,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="210"/>
+      <c r="A19" s="211"/>
       <c r="B19" s="2" t="s">
         <v>331</v>
       </c>
@@ -13615,7 +12815,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="210"/>
+      <c r="A20" s="211"/>
       <c r="B20" s="2" t="s">
         <v>332</v>
       </c>
@@ -13638,7 +12838,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="210"/>
+      <c r="A21" s="211"/>
       <c r="B21" s="2" t="s">
         <v>333</v>
       </c>
@@ -13661,7 +12861,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="210"/>
+      <c r="A22" s="211"/>
       <c r="B22" s="2" t="s">
         <v>334</v>
       </c>
@@ -13684,7 +12884,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="210"/>
+      <c r="A23" s="211"/>
       <c r="B23" s="2" t="s">
         <v>335</v>
       </c>
@@ -13707,7 +12907,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="210"/>
+      <c r="A24" s="211"/>
       <c r="B24" s="2" t="s">
         <v>336</v>
       </c>
@@ -13730,7 +12930,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="210"/>
+      <c r="A25" s="211"/>
       <c r="B25" s="2" t="s">
         <v>337</v>
       </c>
@@ -13753,7 +12953,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="210"/>
+      <c r="A26" s="211"/>
       <c r="B26" s="2" t="s">
         <v>338</v>
       </c>
@@ -13776,11 +12976,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="210"/>
+      <c r="A27" s="211"/>
       <c r="B27" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C27" s="217" t="s">
+      <c r="C27" s="218" t="s">
         <v>447</v>
       </c>
       <c r="D27" s="1">
@@ -13799,11 +12999,11 @@
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="210"/>
+      <c r="A28" s="211"/>
       <c r="B28" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C28" s="163"/>
+      <c r="C28" s="166"/>
       <c r="D28" s="1">
         <v>1</v>
       </c>
@@ -13820,7 +13020,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="210"/>
+      <c r="A29" s="211"/>
       <c r="B29" s="2" t="s">
         <v>341</v>
       </c>
@@ -13843,7 +13043,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="210"/>
+      <c r="A30" s="211"/>
       <c r="B30" s="2" t="s">
         <v>363</v>
       </c>
@@ -13866,7 +13066,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="210"/>
+      <c r="A31" s="211"/>
       <c r="B31" s="2" t="s">
         <v>364</v>
       </c>
@@ -13892,7 +13092,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="210"/>
+      <c r="A32" s="211"/>
       <c r="B32" s="2" t="s">
         <v>365</v>
       </c>
@@ -13915,7 +13115,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="211"/>
+      <c r="A33" s="212"/>
       <c r="B33" s="2" t="s">
         <v>366</v>
       </c>
@@ -13954,7 +13154,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="212" t="s">
+      <c r="A35" s="213" t="s">
         <v>394</v>
       </c>
       <c r="B35" s="19" t="s">
@@ -13977,7 +13177,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="213"/>
+      <c r="A36" s="214"/>
       <c r="B36" s="19" t="s">
         <v>368</v>
       </c>
@@ -13998,7 +13198,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="213"/>
+      <c r="A37" s="214"/>
       <c r="B37" s="19" t="s">
         <v>369</v>
       </c>
@@ -14019,7 +13219,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="213"/>
+      <c r="A38" s="214"/>
       <c r="B38" s="19" t="s">
         <v>370</v>
       </c>
@@ -14040,7 +13240,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="213"/>
+      <c r="A39" s="214"/>
       <c r="B39" s="19" t="s">
         <v>371</v>
       </c>
@@ -14061,7 +13261,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="213"/>
+      <c r="A40" s="214"/>
       <c r="B40" s="19" t="s">
         <v>372</v>
       </c>
@@ -14082,7 +13282,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="213"/>
+      <c r="A41" s="214"/>
       <c r="B41" s="19" t="s">
         <v>373</v>
       </c>
@@ -14103,7 +13303,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="211"/>
+      <c r="A42" s="212"/>
       <c r="B42" s="19" t="s">
         <v>429</v>
       </c>
@@ -14140,7 +13340,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="207" t="s">
+      <c r="A44" s="208" t="s">
         <v>374</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -14163,7 +13363,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="207"/>
+      <c r="A45" s="208"/>
       <c r="B45" s="2" t="s">
         <v>376</v>
       </c>
@@ -14184,7 +13384,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="207"/>
+      <c r="A46" s="208"/>
       <c r="B46" s="2" t="s">
         <v>377</v>
       </c>
@@ -14205,7 +13405,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="207"/>
+      <c r="A47" s="208"/>
       <c r="B47" s="2" t="s">
         <v>392</v>
       </c>
@@ -14226,7 +13426,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="207"/>
+      <c r="A48" s="208"/>
       <c r="B48" s="2" t="s">
         <v>378</v>
       </c>
@@ -14263,7 +13463,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="208" t="s">
+      <c r="A50" s="209" t="s">
         <v>379</v>
       </c>
       <c r="B50" s="19" t="s">
@@ -14286,7 +13486,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="208"/>
+      <c r="A51" s="209"/>
       <c r="B51" s="19" t="s">
         <v>381</v>
       </c>
@@ -14307,7 +13507,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="208"/>
+      <c r="A52" s="209"/>
       <c r="B52" s="19" t="s">
         <v>382</v>
       </c>
@@ -14328,7 +13528,7 @@
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="208"/>
+      <c r="A53" s="209"/>
       <c r="B53" s="19" t="s">
         <v>383</v>
       </c>
@@ -14349,7 +13549,7 @@
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="208"/>
+      <c r="A54" s="209"/>
       <c r="B54" s="19" t="s">
         <v>384</v>
       </c>
@@ -14370,7 +13570,7 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="208"/>
+      <c r="A55" s="209"/>
       <c r="B55" s="19" t="s">
         <v>385</v>
       </c>
@@ -14407,7 +13607,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="214" t="s">
+      <c r="A57" s="215" t="s">
         <v>386</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -14430,7 +13630,7 @@
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="215"/>
+      <c r="A58" s="216"/>
       <c r="B58" s="2" t="s">
         <v>388</v>
       </c>
@@ -14451,7 +13651,7 @@
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="215"/>
+      <c r="A59" s="216"/>
       <c r="B59" s="2" t="s">
         <v>389</v>
       </c>
@@ -14472,7 +13672,7 @@
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="215"/>
+      <c r="A60" s="216"/>
       <c r="B60" s="2" t="s">
         <v>391</v>
       </c>
@@ -14493,7 +13693,7 @@
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="215"/>
+      <c r="A61" s="216"/>
       <c r="B61" s="2" t="s">
         <v>390</v>
       </c>
@@ -14514,11 +13714,11 @@
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="216"/>
+      <c r="A62" s="217"/>
       <c r="B62" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C62" s="84"/>
+      <c r="C62" s="83"/>
       <c r="D62" s="1">
         <v>0</v>
       </c>
@@ -14535,11 +13735,11 @@
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="150" t="s">
+      <c r="A63" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="B63" s="151"/>
-      <c r="C63" s="152"/>
+      <c r="B63" s="154"/>
+      <c r="C63" s="155"/>
       <c r="D63" s="4">
         <f>SUM(D57:D62)</f>
         <v>3</v>
@@ -14553,13 +13753,13 @@
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="240" t="s">
+      <c r="A64" s="220" t="s">
         <v>540</v>
       </c>
-      <c r="B64" s="238" t="s">
+      <c r="B64" s="113" t="s">
         <v>536</v>
       </c>
-      <c r="C64" s="239"/>
+      <c r="C64" s="114"/>
       <c r="D64" s="12">
         <v>0</v>
       </c>
@@ -14577,11 +13777,11 @@
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="210"/>
-      <c r="B65" s="238" t="s">
+      <c r="A65" s="211"/>
+      <c r="B65" s="113" t="s">
         <v>537</v>
       </c>
-      <c r="C65" s="239"/>
+      <c r="C65" s="114"/>
       <c r="D65" s="12">
         <v>0</v>
       </c>
@@ -14599,11 +13799,11 @@
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="210"/>
-      <c r="B66" s="238" t="s">
+      <c r="A66" s="211"/>
+      <c r="B66" s="113" t="s">
         <v>538</v>
       </c>
-      <c r="C66" s="239"/>
+      <c r="C66" s="114"/>
       <c r="D66" s="12">
         <v>0</v>
       </c>
@@ -14621,11 +13821,11 @@
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="211"/>
-      <c r="B67" s="238" t="s">
+      <c r="A67" s="212"/>
+      <c r="B67" s="113" t="s">
         <v>539</v>
       </c>
-      <c r="C67" s="239"/>
+      <c r="C67" s="114"/>
       <c r="D67" s="12">
         <v>0</v>
       </c>
@@ -14643,9 +13843,9 @@
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="204"/>
-      <c r="B68" s="205"/>
-      <c r="C68" s="205"/>
+      <c r="A68" s="205"/>
+      <c r="B68" s="206"/>
+      <c r="C68" s="206"/>
       <c r="D68" s="4">
         <f>SUM(D64:D67)</f>
         <v>0</v>
@@ -14659,11 +13859,11 @@
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="206" t="s">
+      <c r="A69" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="B69" s="151"/>
-      <c r="C69" s="152"/>
+      <c r="B69" s="154"/>
+      <c r="C69" s="155"/>
       <c r="D69" s="11">
         <f>SUM(D5,D14,D34,D43,D49,D56,D63,D68)</f>
         <v>29</v>
@@ -14681,27 +13881,24 @@
       </c>
     </row>
     <row r="70" spans="1:9" ht="102" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="142" t="s">
+      <c r="A70" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="B70" s="202"/>
-      <c r="C70" s="203"/>
+      <c r="B70" s="203"/>
+      <c r="C70" s="204"/>
       <c r="D70" s="38">
         <f>D69/'Site Map QAHealth Rating'!G18</f>
         <v>0.49152542372881358</v>
       </c>
-      <c r="E70" s="156" t="s">
+      <c r="E70" s="159" t="s">
         <v>345</v>
       </c>
-      <c r="F70" s="157"/>
-      <c r="G70" s="157"/>
+      <c r="F70" s="160"/>
+      <c r="G70" s="160"/>
     </row>
     <row r="71" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="E70:G70"/>
@@ -14717,75 +13914,81 @@
     <mergeCell ref="A57:A62"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <conditionalFormatting sqref="D57:D62 D50:D55 D44:D48 D35:D42 D15:D33">
-    <cfRule type="cellIs" dxfId="28" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="58" priority="14" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="15" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F42 F44:F48 F50:F55 F57:F62 F15:F33 F2:F4 F6:F13">
-    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="56" priority="10" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="12" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D4 D6:D13">
-    <cfRule type="cellIs" dxfId="20" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:F67">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="51" priority="5" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="50" priority="6" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="49" priority="7" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64:D67">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageSetup scale="39" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14795,7 +13998,8 @@
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14825,13 +14029,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="148" t="s">
         <v>509</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="199" t="s">
+      <c r="C2" s="202" t="s">
         <v>508</v>
       </c>
       <c r="D2" s="1"/>
@@ -14849,11 +14053,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="145"/>
+      <c r="A3" s="148"/>
       <c r="B3" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="161"/>
+      <c r="C3" s="164"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="str">
@@ -14869,11 +14073,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="145"/>
+      <c r="A4" s="148"/>
       <c r="B4" s="21" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="161"/>
+      <c r="C4" s="164"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="str">
@@ -14889,11 +14093,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="145"/>
+      <c r="A5" s="148"/>
       <c r="B5" s="21" t="s">
         <v>506</v>
       </c>
-      <c r="C5" s="161"/>
+      <c r="C5" s="164"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="str">
@@ -14909,11 +14113,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="145"/>
+      <c r="A6" s="148"/>
       <c r="B6" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="161"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="str">
@@ -14929,11 +14133,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="145"/>
+      <c r="A7" s="148"/>
       <c r="B7" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="C7" s="164"/>
+      <c r="C7" s="167"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="str">
@@ -14949,11 +14153,11 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="150" t="s">
+      <c r="A8" s="153" t="s">
         <v>144</v>
       </c>
-      <c r="B8" s="151"/>
-      <c r="C8" s="152"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
       <c r="D8" s="4">
         <f>SUM(D2:D7)</f>
         <v>0</v>
@@ -14966,16 +14170,16 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="206" t="s">
+      <c r="A9" s="207" t="s">
         <v>145</v>
       </c>
-      <c r="B9" s="218"/>
-      <c r="C9" s="219"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="223"/>
       <c r="D9" s="40">
         <f>SUM(D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="71" t="e">
+      <c r="E9" s="70" t="e">
         <f>F9/D9</f>
         <v>#DIV/0!</v>
       </c>
@@ -14988,16 +14192,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="132.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="144"/>
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
       <c r="D10" s="38">
         <f>D9/'Site Map QAHealth Rating'!G7</f>
         <v>0</v>
       </c>
-      <c r="E10" s="83" t="s">
+      <c r="E10" s="82" t="s">
         <v>355</v>
       </c>
     </row>
@@ -15011,45 +14215,49 @@
     <mergeCell ref="C2:C7"/>
   </mergeCells>
   <conditionalFormatting sqref="D2:D7">
-    <cfRule type="cellIs" dxfId="105" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="103" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="5" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F7">
-    <cfRule type="containsText" dxfId="100" priority="1" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="41" priority="1" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="99" priority="2" operator="containsText" text="DO NOT ADD">
+    <cfRule type="containsText" dxfId="40" priority="2" operator="containsText" text="DO NOT ADD">
       <formula>NOT(ISERROR(SEARCH("DO NOT ADD",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="3" operator="containsText" text="Can be added">
+    <cfRule type="containsText" dxfId="39" priority="3" operator="containsText" text="Can be added">
       <formula>NOT(ISERROR(SEARCH("Can be added",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="G1" sqref="G1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15060,45 +14268,45 @@
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.5546875" customWidth="1"/>
     <col min="6" max="6" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="92" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="92" t="s">
+      <c r="A1" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="C1" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="92" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="92" t="s">
+      <c r="D1" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="91" t="s">
         <v>344</v>
       </c>
-      <c r="F1" s="93" t="s">
+      <c r="F1" s="92" t="s">
         <v>347</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="G1" s="91" t="s">
         <v>346</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="H1" s="91" t="s">
         <v>454</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="I1" s="91" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="224" t="s">
         <v>455</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="80" t="s">
         <v>459</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -15122,7 +14330,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="227"/>
+      <c r="A3" s="225"/>
       <c r="B3" s="1" t="s">
         <v>103</v>
       </c>
@@ -15147,7 +14355,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="227"/>
+      <c r="A4" s="225"/>
       <c r="B4" s="1" t="s">
         <v>462</v>
       </c>
@@ -15172,7 +14380,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="128"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="1" t="s">
         <v>464</v>
       </c>
@@ -15197,7 +14405,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="133"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="1" t="s">
         <v>466</v>
       </c>
@@ -15222,11 +14430,11 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="224" t="s">
+      <c r="A7" s="229" t="s">
         <v>144</v>
       </c>
-      <c r="B7" s="225"/>
-      <c r="C7" s="226"/>
+      <c r="B7" s="230"/>
+      <c r="C7" s="231"/>
       <c r="D7" s="4">
         <f>SUM(D2:D6)</f>
         <v>3</v>
@@ -15241,7 +14449,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="220" t="s">
+      <c r="A8" s="224" t="s">
         <v>468</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -15266,7 +14474,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="128"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="1" t="s">
         <v>470</v>
       </c>
@@ -15289,7 +14497,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="128"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="1" t="s">
         <v>471</v>
       </c>
@@ -15312,7 +14520,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="128"/>
+      <c r="A11" s="132"/>
       <c r="B11" s="1" t="s">
         <v>472</v>
       </c>
@@ -15335,7 +14543,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="128"/>
+      <c r="A12" s="132"/>
       <c r="B12" s="1" t="s">
         <v>473</v>
       </c>
@@ -15358,7 +14566,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="133"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="1" t="s">
         <v>474</v>
       </c>
@@ -15381,11 +14589,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="224" t="s">
+      <c r="A14" s="229" t="s">
         <v>144</v>
       </c>
-      <c r="B14" s="225"/>
-      <c r="C14" s="226"/>
+      <c r="B14" s="230"/>
+      <c r="C14" s="231"/>
       <c r="D14" s="4">
         <f>SUM(D8:D13)</f>
         <v>2</v>
@@ -15400,7 +14608,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="224" t="s">
         <v>457</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -15425,7 +14633,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="128"/>
+      <c r="A16" s="132"/>
       <c r="B16" s="1" t="s">
         <v>476</v>
       </c>
@@ -15448,7 +14656,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="128"/>
+      <c r="A17" s="132"/>
       <c r="B17" s="1" t="s">
         <v>477</v>
       </c>
@@ -15471,7 +14679,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="133"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="1" t="s">
         <v>478</v>
       </c>
@@ -15494,11 +14702,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="224" t="s">
+      <c r="A19" s="229" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="225"/>
-      <c r="C19" s="226"/>
+      <c r="B19" s="230"/>
+      <c r="C19" s="231"/>
       <c r="D19" s="4">
         <f>SUM(D15:D18)</f>
         <v>2</v>
@@ -15513,7 +14721,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="220" t="s">
+      <c r="A20" s="224" t="s">
         <v>479</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -15538,7 +14746,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="133"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="1" t="s">
         <v>481</v>
       </c>
@@ -15561,18 +14769,18 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="221" t="s">
+      <c r="A22" s="226" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="221"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="92">
+      <c r="B22" s="226"/>
+      <c r="C22" s="226"/>
+      <c r="D22" s="91">
         <f>SUM(D20:D21)</f>
         <v>2</v>
       </c>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="92">
+      <c r="G22" s="91">
         <f>SUM(D22:E22)</f>
         <v>2</v>
       </c>
@@ -15583,11 +14791,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="222" t="s">
+      <c r="A23" s="227" t="s">
         <v>145</v>
       </c>
-      <c r="B23" s="222"/>
-      <c r="C23" s="222"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
       <c r="D23" s="11">
         <f>SUM(D7,D14,D19,D22)</f>
         <v>9</v>
@@ -15596,30 +14804,30 @@
         <f>F23/D23</f>
         <v>0</v>
       </c>
-      <c r="F23" s="89">
+      <c r="F23" s="88">
         <f>SUM(E2:E6,E8:E13,E15:E18,E20:E21)</f>
         <v>0</v>
       </c>
       <c r="G23" t="s">
         <v>348</v>
       </c>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
     </row>
     <row r="24" spans="1:9" ht="190.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="223" t="s">
+      <c r="A24" s="228" t="s">
         <v>146</v>
       </c>
-      <c r="B24" s="223"/>
-      <c r="C24" s="223"/>
+      <c r="B24" s="228"/>
+      <c r="C24" s="228"/>
       <c r="D24" s="38">
         <f>D23/'Site Map QAHealth Rating'!G26</f>
-        <v>0.52941176470588236</v>
+        <v>0.6</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="F24" s="90"/>
+      <c r="F24" s="89"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -15639,35 +14847,36 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F6 F8:F13 F15:F18 F20:F21">
-    <cfRule type="containsText" dxfId="97" priority="6" operator="containsText" text="Is added">
+    <cfRule type="containsText" dxfId="38" priority="6" operator="containsText" text="Is added">
       <formula>NOT(ISERROR(SEARCH("Is added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="7" operator="containsText" text="Can Be Added">
+    <cfRule type="containsText" dxfId="37" priority="7" operator="containsText" text="Can Be Added">
       <formula>NOT(ISERROR(SEARCH("Can Be Added",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="95" priority="8" operator="containsText" text="Do NOT ADD">
+    <cfRule type="containsText" dxfId="36" priority="8" operator="containsText" text="Do NOT ADD">
       <formula>NOT(ISERROR(SEARCH("Do NOT ADD",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D6 D8:D13 D15:D18 D20:D21">
-    <cfRule type="cellIs" dxfId="94" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="92" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="67" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>